--- a/Python2.7/廖雪峰目录.xlsx
+++ b/Python2.7/廖雪峰目录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,353 @@
     <sheet name="Symbols" sheetId="5" r:id="rId5"/>
     <sheet name="@" sheetId="6" r:id="rId6"/>
     <sheet name="tools" sheetId="7" r:id="rId7"/>
+    <sheet name="SQL" sheetId="8" r:id="rId8"/>
+    <sheet name="Functions" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>返回给定参数的绝对值
+&gt;&gt;&gt; abs(-3)
+3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>通过取余，返回商和余数的元祖
+&gt;&gt;&gt; divmod(10, 2)
+(5, 0)
+&gt;&gt;&gt; divmod(10, 3)
+(3, 1)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>转换成数字
+&gt;&gt;&gt; int('222')
+222</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">返回一个迭代器(类似序列)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>转换成字符串
+&gt;&gt;&gt; str(0xFF)
+'255'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>转换成长整形数字
+&gt;&gt;&gt; long('222')
+222L</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>指数运算, **也可以
+&gt;&gt;&gt; 5**2
+25
+&gt;&gt;&gt; pow(5.2)
+25</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>转换成浮点数
+&gt;&gt;&gt; float('222')
+222.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>转换成布尔值
+&gt;&gt;&gt; bool(1)
+True
+&gt;&gt;&gt; bool(0)
+False</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>iterator is a generator，迭代器为类序列对象提供了一个类序列的接口
+#iter and generator
+#the first try
+#=================================
+i = iter('abcd')
+print i.next()
+print i.next()
+print i.next()
+s = {'one':1,'two':2,'three':3}
+print s
+m = iter(s)
+print m.next()
+print m.next()
+print m.next()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>转换成复数
+&gt;&gt;&gt; complex(2)
+(2+0j)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>返回对象类型
+&gt;&gt;&gt; type(0xFF)
+&lt;type 'int'&gt;
+&gt;&gt;&gt; type('str')
+&lt;type 'str'&gt;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>比较大小
+&gt;&gt;&gt; cmp(1, 2)
+-1
+&gt;&gt;&gt; cmp(2, 1)
+1
+&gt;&gt;&gt; cmp(2, 2)
+0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>返回一个迭代器(类似序列)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>四舍五入
+&gt;&gt;&gt; round(3)
+3.0
+&gt;&gt;&gt; round(3.99, 1)
+4.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>对两个数据进行数据类型转换
+&gt;&gt;&gt; coerce(1, 2)
+(1, 2)
+&gt;&gt;&gt; coerce(1, -2)
+(1, -2)
+&gt;&gt;&gt;coerce(1, 123L)
+(1L, 123L)
+&gt;&gt;&gt; coerce(1.3, 123L)
+(1.3, 123.0)
+&gt;&gt;&gt; coerce(1j, 123L)
+(1j, (123+0j))</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>查看对象的内存地址
+&gt;&gt;&gt; s=2
+&gt;&gt;&gt; id(s)
+13434272</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>返回一个序列(列表)对象</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="1068">
   <si>
     <t>Python教程</t>
   </si>
@@ -1291,9 +1631,6 @@
   </si>
   <si>
     <t>ex32</t>
-  </si>
-  <si>
-    <t>range(0, 6)</t>
   </si>
   <si>
     <t>appends to the end of the list</t>
@@ -2433,9 +2770,6 @@
     process(index, item)</t>
   </si>
   <si>
-    <t>enumerate会将数组或列表组成一个索引序列。使我们再获取索引和索引内容的时候更加方便如下：</t>
-  </si>
-  <si>
     <t>符号</t>
   </si>
   <si>
@@ -2883,9 +3217,6 @@
     <t>s.strip()</t>
   </si>
   <si>
-    <t>当rm为空时，默认删除空白符（包括'\n', '\r',  '\t',  ' ')</t>
-  </si>
-  <si>
     <t>删除s字符串中开头、结尾处，位于 rm删除序列的字符。</t>
   </si>
   <si>
@@ -3095,12 +3426,685 @@
   <si>
     <t>s.split()</t>
   </si>
+  <si>
+    <t>&gt;&gt;=</t>
+  </si>
+  <si>
+    <t>向右位移</t>
+  </si>
+  <si>
+    <t>a=3; a &gt;&gt;=1;a
+1</t>
+  </si>
+  <si>
+    <t>&lt;&lt;=</t>
+  </si>
+  <si>
+    <t>向左位移</t>
+  </si>
+  <si>
+    <t>a=3; a&lt;&lt;=1;a
+6</t>
+  </si>
+  <si>
+    <t>另外一种判断key是否存在的方法，比has_key要快</t>
+  </si>
+  <si>
+    <t>print ‘name’ in d.keys()，
+如果存在的话，返回True</t>
+  </si>
+  <si>
+    <t>maketrans(x,y)</t>
+  </si>
+  <si>
+    <t>进行字符串字符编码的常用方法</t>
+  </si>
+  <si>
+    <t>import string
+map = maketrans('abc', 'xyz')
+s = 'test'
+s.translate(map)</t>
+  </si>
+  <si>
+    <t>string.letters</t>
+  </si>
+  <si>
+    <t>表示所有字母</t>
+  </si>
+  <si>
+    <t>如果a中有字母就打印出来</t>
+  </si>
+  <si>
+    <t>a = """ #%da!!!121abbb """
+if __name__ == "__main__":
+  r = ""
+  for i in a:
+    if i in string.letters:
+      r += i
+  print r</t>
+  </si>
+  <si>
+    <t>shell&gt; mysql -h host -u user -p
+Enter password: ********</t>
+  </si>
+  <si>
+    <t>mysql&gt; QUIT</t>
+  </si>
+  <si>
+    <t>远程连接：主机、用户名和使用的密码</t>
+  </si>
+  <si>
+    <t>shell&gt; mysql</t>
+  </si>
+  <si>
+    <t>local connection</t>
+  </si>
+  <si>
+    <t>quit</t>
+  </si>
+  <si>
+    <t>select version(), current_date;</t>
+  </si>
+  <si>
+    <t>show current version and date on server</t>
+  </si>
+  <si>
+    <t>mysql通过寻找终止分号而不是输入行的结束来决定语句在哪儿结束</t>
+  </si>
+  <si>
+    <t>语法特点</t>
+  </si>
+  <si>
+    <t>/c</t>
+  </si>
+  <si>
+    <t>mysql&gt;</t>
+  </si>
+  <si>
+    <t>准备好接受新命令。</t>
+  </si>
+  <si>
+    <t>-&gt;</t>
+  </si>
+  <si>
+    <t>等待多行命令的下一行。</t>
+  </si>
+  <si>
+    <t>'&gt;</t>
+  </si>
+  <si>
+    <t>等待下一行，等待以单引号(“'”)开始的字符串的结束。</t>
+  </si>
+  <si>
+    <t>"&gt;</t>
+  </si>
+  <si>
+    <t>等待下一行，等待以双引号(“"”)开始的字符串的结束。</t>
+  </si>
+  <si>
+    <t>`&gt;</t>
+  </si>
+  <si>
+    <t>等待下一行，等待以反斜点(‘`’)开始的识别符的结束。</t>
+  </si>
+  <si>
+    <t>/*&gt;</t>
+  </si>
+  <si>
+    <t>等待下一行，等待以/*开始的注释的结束。</t>
+  </si>
+  <si>
+    <t>提示符</t>
+  </si>
+  <si>
+    <t>含义</t>
+  </si>
+  <si>
+    <t>select user();</t>
+  </si>
+  <si>
+    <t>查看用户</t>
+  </si>
+  <si>
+    <t>show databases;</t>
+  </si>
+  <si>
+    <t>查看数据库</t>
+  </si>
+  <si>
+    <t>use test</t>
+  </si>
+  <si>
+    <t>GRANT ALL ON menagerie.* TO 'your_mysql_name'@'your_client_host'</t>
+  </si>
+  <si>
+    <t>your_mysql_name是分配给你的MySQL用户名，your_client_host是所连接的服务器所在的主机</t>
+  </si>
+  <si>
+    <t>create database apec</t>
+  </si>
+  <si>
+    <t>创建apec数据库</t>
+  </si>
+  <si>
+    <t>mysql&gt; CREATE TABLE pet (name VARCHAR(20), owner VARCHAR(20),
+    -&gt; species VARCHAR(20), sex CHAR(1), birth DATE, death DATE);</t>
+  </si>
+  <si>
+    <t>如果test数据库存在，尝试访问它。注意：use，类似quit，不需分号</t>
+  </si>
+  <si>
+    <t>如果你决定不想执行正在输入过程中的一个命令，输入/c取消它
+mysql&gt; SELECT
+           -&gt; USER()
+           -&gt; /c</t>
+  </si>
+  <si>
+    <t>使用一个CREATE TABLE语句指定你的数据库表的布局，</t>
+  </si>
+  <si>
+    <t>show tables;</t>
+  </si>
+  <si>
+    <t>describe pet;</t>
+  </si>
+  <si>
+    <t>显示表的格式</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LOAD DATA LOCAL INFILE '/path/pet.txt' INTO TABLE pet;</t>
+  </si>
+  <si>
+    <t>创建一个文本文件“pet.txt”，每行包含一个记录，用定位符(tab)把值分开，并且以CREATE TABLE语句中列出的列次序给出。对于丢失的值(例如未知的性别，或仍然活着的动物的死亡日期)，你可以使用NULL值。为了在你的文本文件中表示这些内容，使用/N（反斜线，字母N）。
+使用这条命令将文本文件“pet.txt”装载到pet表中。</t>
+  </si>
+  <si>
+    <t>mysql&gt; INSERT INTO pet
+    -&gt; VALUES ('Puffball','Diane','hamster','f','1999-03-30',NULL);</t>
+  </si>
+  <si>
+    <t>INSERT语句添加一条新记录</t>
+  </si>
+  <si>
+    <t>SELECT语句用来从数据表中检索信息。语句的一般格式是：
+SELECT what_to_select
+FROM which_table
+WHERE conditions_to_satisfy;</t>
+  </si>
+  <si>
+    <t>what_to_select指出你想要看到的内容，可以是列的一个表，或*表示“所有的列”。
+which_table指出你想要从其检索数据的表。
+WHERE子句是可选项，如果选择该项，conditions_to_satisfy指定行必须满足的检索条件。</t>
+  </si>
+  <si>
+    <t>删除表格</t>
+  </si>
+  <si>
+    <t>UPDATE pet SET birth = '1989-08-31' WHERE name = 'Bowser';</t>
+  </si>
+  <si>
+    <t>DELETE FROM pet;</t>
+  </si>
+  <si>
+    <t>用一个UPDATE语句仅修正错误记录：</t>
+  </si>
+  <si>
+    <t>SELECT * FROM pet WHERE name = 'Bowser';</t>
+  </si>
+  <si>
+    <t>根据name查看指定行</t>
+  </si>
+  <si>
+    <t>SELECT * FROM pet WHERE birth &gt; '1998-1-1';</t>
+  </si>
+  <si>
+    <t>根据birth查看指定行</t>
+  </si>
+  <si>
+    <t>SELECT * FROM pet WHERE species = 'dog' AND sex = 'f';</t>
+  </si>
+  <si>
+    <t>可以组合条件，例如，找出雌性的狗，使用AND逻辑操作符</t>
+  </si>
+  <si>
+    <t>SELECT * FROM pet WHERE species = 'snake' OR species = 'bird';</t>
+  </si>
+  <si>
+    <t>OR操作符</t>
+  </si>
+  <si>
+    <t>mysql&gt; SELECT * FROM pet WHERE (species = 'cat' AND sex = 'm')
+    -&gt; OR (species = 'dog' AND sex = 'f');</t>
+  </si>
+  <si>
+    <t>使用圆括号指明如何对条件进行分组</t>
+  </si>
+  <si>
+    <t>SELECT name, birth FROM pet;</t>
+  </si>
+  <si>
+    <t>选择name和birth列</t>
+  </si>
+  <si>
+    <t>SELECT owner FROM pet;</t>
+  </si>
+  <si>
+    <t>找出谁拥有宠物，使用这个查询</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT owner FROM pet;</t>
+  </si>
+  <si>
+    <t>增加关键字DISTINCT检索出每个唯一的输出记录</t>
+  </si>
+  <si>
+    <t>mysql&gt; SELECT name, species, birth FROM pet
+    -&gt; WHERE species = 'dog' OR species = 'cat';</t>
+  </si>
+  <si>
+    <t>可以使用一个WHERE子句结合行选择与列选择。例如，要想查询狗和猫的出生日期，使用这个查询</t>
+  </si>
+  <si>
+    <t>SELECT name, birth FROM pet ORDER BY birth;</t>
+  </si>
+  <si>
+    <t>为了排序结果，使用ORDER BY子句。
+这里是动物生日，按日期排序：</t>
+  </si>
+  <si>
+    <t>SELECT name, birth FROM pet ORDER BY birth DESC;</t>
+  </si>
+  <si>
+    <t>默认排序是升序，最小的值在第一。要想以降序排序，在你正在排序的列名上增加DESC（降序 ）关键字</t>
+  </si>
+  <si>
+    <t>mysql&gt; SELECT name, species, birth FROM pet
+    -&gt; ORDER BY species, birth DESC;</t>
+  </si>
+  <si>
+    <t>按升序对动物的种类进行排序，然后按降序根据生日对各动物种类进行排序（最年轻的动物在最前面），使用下列查询</t>
+  </si>
+  <si>
+    <t>mysql&gt; SELECT name, birth, CURDATE(),
+    -&gt; (YEAR(CURDATE())-YEAR(birth))
+    -&gt; - (RIGHT(CURDATE(),5)&lt;RIGHT(birth,5))
+    -&gt; AS age
+    -&gt; FROM pet;</t>
+  </si>
+  <si>
+    <t>以下查询显示了每个宠物的出生日期、当前日期和年龄数值的年数字</t>
+  </si>
+  <si>
+    <t>mysql&gt; SELECT name, birth, CURDATE(),
+    -&gt; (YEAR(CURDATE())-YEAR(birth))
+    -&gt; - (RIGHT(CURDATE(),5)&lt;RIGHT(birth,5))
+    -&gt; AS age
+    -&gt; FROM pet ORDER BY name;</t>
+  </si>
+  <si>
+    <t>添加ORDER BY name子句按照名字对输出进行排序则能够实现。</t>
+  </si>
+  <si>
+    <t>mysql&gt; SELECT name, birth, CURDATE(),
+    -&gt; (YEAR(CURDATE())-YEAR(birth))
+    -&gt; - (RIGHT(CURDATE(),5)&lt;RIGHT(birth,5))
+    -&gt; AS age
+    -&gt; FROM pet ORDER BY age;</t>
+  </si>
+  <si>
+    <t>为了按age而非name排序输出，只要再使用一个ORDER BY子句</t>
+  </si>
+  <si>
+    <t>mysql&gt; SELECT name, birth, death,
+    -&gt; (YEAR(death)-YEAR(birth)) - (RIGHT(death,5)&lt;RIGHT(birth,5))
+    -&gt; AS age
+    -&gt; FROM pet WHERE death IS NOT NULL ORDER BY age;</t>
+  </si>
+  <si>
+    <t>可以使用一个类似的查询来确定已经死亡动物的死亡年龄。你通过检查death值是否是NULL来确定是哪些动物，然后，对于那些非NULL值的动物，需要计算出death和birth值之间的差：</t>
+  </si>
+  <si>
+    <t>SELECT name, birth, MONTH(birth) FROM pet;</t>
+  </si>
+  <si>
+    <t>运行一个简单的查询，显示birth和MONTH(birth)的值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">theString = 'saaaay yes no yaaaass'
+print theString.strip('say')
+theString依次被去除首尾在['s'，'a'，'y']数组内的字符，直到字符在不数组内。所以，输出的结果为： 
+yes no </t>
+  </si>
+  <si>
+    <t>当rm为空时，默认删除头尾空白符（包括'\n', '\r',  '\t',  ' ')</t>
+  </si>
+  <si>
+    <t>zip()</t>
+  </si>
+  <si>
+    <t>内建函数</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 &gt;&gt;&gt; name=('jack','beginman','sony','pcky')
+ 2 &gt;&gt;&gt; age=(2001,2003,2005,2000)
+ 3 &gt;&gt;&gt; for a,n in zip(name,age):
+ 4     print a,n</t>
+  </si>
+  <si>
+    <t>sorted()</t>
+  </si>
+  <si>
+    <t>reversed()</t>
+  </si>
+  <si>
+    <t>enumerate()</t>
+  </si>
+  <si>
+    <t>返回一个序列(列表)对象
+可以通过help(zip)来查看</t>
+  </si>
+  <si>
+    <t>zip(*)</t>
+  </si>
+  <si>
+    <t>1 &gt;&gt;&gt; z1=[1,2,3]
+2 &gt;&gt;&gt; z2=[4,5,6,7]
+3 &gt;&gt;&gt; result=zip(z1,z2)
+4 &gt;&gt;&gt; result
+5 [(1, 4), (2, 5), (3, 6)]
+6 &gt;&gt;&gt; zip(*result)
+7 [(1, 2, 3), (4, 5, 6)]</t>
+  </si>
+  <si>
+    <t>(*)操作符与zip函数配合可以实现与zip相反的功能,即将合并的序列拆成多个tuple</t>
+  </si>
+  <si>
+    <t>iter()</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; a = [1, 2, 3, 4, 5, 6]
+&gt;&gt;&gt; zip(*([iter(a)] * 2))
+[(1, 2), (3, 4), (5, 6)]
+&gt;&gt;&gt; zip(a[::3], a[1::3], a[2::3])
+[(1, 2, 3), (4, 5, 6)]</t>
+  </si>
+  <si>
+    <t>使用zip反转字典</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; m = {'a': 1, 'b': 2, 'c': 3, 'd': 4}
+&gt;&gt;&gt; m.items()
+[('a', 1), ('c', 3), ('b', 2), ('d', 4)]
+&gt;&gt;&gt; zip(m.values(), m.keys())
+[(1, 'a'), (3, 'c'), (2, 'b'), (4, 'd')]
+&gt;&gt;&gt; mi = dict(zip(m.values(), m.keys()))
+&gt;&gt;&gt; mi
+{1: 'a', 2: 'b', 3: 'c', 4: 'd'}</t>
+  </si>
+  <si>
+    <t>cmp()</t>
+  </si>
+  <si>
+    <t>str()</t>
+  </si>
+  <si>
+    <t>type()</t>
+  </si>
+  <si>
+    <t>int()</t>
+  </si>
+  <si>
+    <t>long()</t>
+  </si>
+  <si>
+    <t>float()</t>
+  </si>
+  <si>
+    <t>bool()</t>
+  </si>
+  <si>
+    <t>complex()</t>
+  </si>
+  <si>
+    <t>abs()</t>
+  </si>
+  <si>
+    <t>coerce()</t>
+  </si>
+  <si>
+    <t>divmod()</t>
+  </si>
+  <si>
+    <t>pow()</t>
+  </si>
+  <si>
+    <t>round()</t>
+  </si>
+  <si>
+    <t>range(start, stop, step)</t>
+  </si>
+  <si>
+    <t>一定范围内的数字</t>
+  </si>
+  <si>
+    <t>range(5)  #0-4</t>
+  </si>
+  <si>
+    <t>len()</t>
+  </si>
+  <si>
+    <t>长度</t>
+  </si>
+  <si>
+    <t>len(string) or len(dic)</t>
+  </si>
+  <si>
+    <t>enumerate会将数组或列表组成一个索引序列。使我们再获取索引和索引内容的时候更加方便</t>
+  </si>
+  <si>
+    <t>id()</t>
+  </si>
+  <si>
+    <t>Built-in Functions</t>
+  </si>
+  <si>
+    <t>input()</t>
+  </si>
+  <si>
+    <t>open()</t>
+  </si>
+  <si>
+    <t>staticmethod()</t>
+  </si>
+  <si>
+    <t>all()</t>
+  </si>
+  <si>
+    <t>ord()</t>
+  </si>
+  <si>
+    <t>any()</t>
+  </si>
+  <si>
+    <t>eval()</t>
+  </si>
+  <si>
+    <t>isinstance()</t>
+  </si>
+  <si>
+    <t>sum()</t>
+  </si>
+  <si>
+    <t>basestring()</t>
+  </si>
+  <si>
+    <t>execfile()</t>
+  </si>
+  <si>
+    <t>issubclass()</t>
+  </si>
+  <si>
+    <t>print()</t>
+  </si>
+  <si>
+    <t>super()</t>
+  </si>
+  <si>
+    <t>bin()</t>
+  </si>
+  <si>
+    <t>file()</t>
+  </si>
+  <si>
+    <t>property()</t>
+  </si>
+  <si>
+    <t>tuple()</t>
+  </si>
+  <si>
+    <t>filter()</t>
+  </si>
+  <si>
+    <t>range()</t>
+  </si>
+  <si>
+    <t>bytearray()</t>
+  </si>
+  <si>
+    <t>list()</t>
+  </si>
+  <si>
+    <t>raw_input()</t>
+  </si>
+  <si>
+    <t>unichr()</t>
+  </si>
+  <si>
+    <t>callable()</t>
+  </si>
+  <si>
+    <t>format()</t>
+  </si>
+  <si>
+    <t>locals()</t>
+  </si>
+  <si>
+    <t>reduce()</t>
+  </si>
+  <si>
+    <t>unicode()</t>
+  </si>
+  <si>
+    <t>chr()</t>
+  </si>
+  <si>
+    <t>frozenset()</t>
+  </si>
+  <si>
+    <t>reload()</t>
+  </si>
+  <si>
+    <t>vars()</t>
+  </si>
+  <si>
+    <t>classmethod()</t>
+  </si>
+  <si>
+    <t>getattr()</t>
+  </si>
+  <si>
+    <t>map()</t>
+  </si>
+  <si>
+    <t>repr()</t>
+  </si>
+  <si>
+    <t>xrange()</t>
+  </si>
+  <si>
+    <t>globals()</t>
+  </si>
+  <si>
+    <t>max()</t>
+  </si>
+  <si>
+    <t>compile()</t>
+  </si>
+  <si>
+    <t>hasattr()</t>
+  </si>
+  <si>
+    <t>memoryview()</t>
+  </si>
+  <si>
+    <t>__import__()</t>
+  </si>
+  <si>
+    <t>hash()</t>
+  </si>
+  <si>
+    <t>min()</t>
+  </si>
+  <si>
+    <t>set()</t>
+  </si>
+  <si>
+    <t>apply()</t>
+  </si>
+  <si>
+    <t>delattr()</t>
+  </si>
+  <si>
+    <t>help()</t>
+  </si>
+  <si>
+    <t>next()</t>
+  </si>
+  <si>
+    <t>setattr()</t>
+  </si>
+  <si>
+    <t>buffer()</t>
+  </si>
+  <si>
+    <t>hex()</t>
+  </si>
+  <si>
+    <t>object()</t>
+  </si>
+  <si>
+    <t>slice()</t>
+  </si>
+  <si>
+    <t>dir()</t>
+  </si>
+  <si>
+    <t>oct()</t>
+  </si>
+  <si>
+    <t>intern()</t>
+  </si>
+  <si>
+    <t>官网参考：http://docs.python.org/2/library/functions.html</t>
+  </si>
+  <si>
+    <t>forzenset()</t>
+  </si>
+  <si>
+    <t>staticmethod</t>
+  </si>
+  <si>
+    <t>工厂函数</t>
+  </si>
+  <si>
+    <t>factory function</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3242,8 +4246,38 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF1E4E7B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3256,8 +4290,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -3577,6 +4617,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3587,7 +4806,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3627,233 +4846,302 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4823,146 +6111,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
     </row>
     <row r="2" spans="1:10" ht="16.5">
       <c r="A2" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
     </row>
     <row r="3" spans="1:10" ht="33" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
       <c r="A5" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="92" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
     </row>
     <row r="6" spans="1:10" ht="32.25" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="93" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
       <c r="A7" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="92" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
     </row>
     <row r="8" spans="1:10" ht="16.5">
       <c r="A8" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="92" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
     </row>
     <row r="10" spans="1:10" ht="16.5">
       <c r="A10" s="7" t="s">
@@ -4988,17 +6276,17 @@
       <c r="A11" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="92" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
     </row>
     <row r="12" spans="1:10" ht="16.5">
       <c r="A12" s="7" t="s">
@@ -5057,8 +6345,8 @@
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
       <c r="G14" s="7" t="s">
         <v>179</v>
       </c>
@@ -5072,33 +6360,33 @@
       <c r="A15" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="92" t="s">
         <v>207</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
     </row>
     <row r="16" spans="1:10" ht="16.5">
       <c r="A16" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="92" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
     </row>
     <row r="17" spans="1:10" ht="16.5">
       <c r="A17" s="7" t="s">
@@ -5121,50 +6409,50 @@
       <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10" ht="16.5">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
     </row>
     <row r="19" spans="1:10" ht="16.5">
       <c r="A19" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="92" t="s">
         <v>209</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
     </row>
     <row r="20" spans="1:10" ht="16.5">
       <c r="A20" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="92" t="s">
         <v>210</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
     </row>
     <row r="21" spans="1:10" ht="16.5">
       <c r="A21" s="10" t="s">
@@ -5182,29 +6470,29 @@
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
     </row>
     <row r="22" spans="1:10" ht="16.5">
       <c r="A22" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="92" t="s">
         <v>212</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
       <c r="G22" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="92" t="s">
         <v>213</v>
       </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
     </row>
     <row r="23" spans="1:10" ht="16.5">
       <c r="A23" s="10" t="s">
@@ -5222,9 +6510,9 @@
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="91"/>
     </row>
     <row r="24" spans="1:10" ht="16.5">
       <c r="A24" s="10" t="s">
@@ -5242,18 +6530,18 @@
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
     </row>
     <row r="25" spans="1:10" ht="16.5">
       <c r="A25" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="92" t="s">
         <v>215</v>
       </c>
-      <c r="C25" s="13"/>
+      <c r="C25" s="92"/>
       <c r="D25" s="10" t="s">
         <v>157</v>
       </c>
@@ -5274,10 +6562,10 @@
       <c r="A26" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="92" t="s">
         <v>217</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="92"/>
       <c r="D26" s="10" t="s">
         <v>153</v>
       </c>
@@ -5288,41 +6576,41 @@
       <c r="G26" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
     </row>
     <row r="27" spans="1:10" ht="16.5">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="90"/>
     </row>
     <row r="28" spans="1:10" ht="16.5">
       <c r="A28" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="91"/>
     </row>
     <row r="29" spans="1:10" ht="16.5">
       <c r="A29" s="10" t="s">
@@ -5344,17 +6632,17 @@
       <c r="A30" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="93" t="s">
         <v>219</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
     </row>
     <row r="31" spans="1:10" ht="16.5">
       <c r="A31" s="10" t="s">
@@ -5376,49 +6664,49 @@
       <c r="A32" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="93" t="s">
         <v>140</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
     </row>
     <row r="33" spans="1:10" ht="16.5">
       <c r="A33" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
     </row>
     <row r="34" spans="1:10" ht="33" customHeight="1">
       <c r="A34" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="93"/>
     </row>
     <row r="35" spans="1:10" ht="16.5">
       <c r="A35" s="10" t="s">
@@ -5432,23 +6720,23 @@
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="91"/>
     </row>
     <row r="36" spans="1:10" ht="16.5">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="90"/>
     </row>
     <row r="37" spans="1:10" ht="16.5">
       <c r="A37" s="10" t="s">
@@ -5462,21 +6750,21 @@
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
+      <c r="H37" s="91"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="91"/>
     </row>
     <row r="38" spans="1:10" ht="16.5">
       <c r="A38" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="92" t="s">
         <v>221</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="92"/>
       <c r="G38" s="10" t="s">
         <v>133</v>
       </c>
@@ -5500,11 +6788,11 @@
       <c r="G39" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="H39" s="92" t="s">
         <v>223</v>
       </c>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="92"/>
     </row>
     <row r="40" spans="1:10" ht="16.5">
       <c r="A40" s="10" t="s">
@@ -5524,11 +6812,11 @@
       <c r="G40" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="H40" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="92"/>
     </row>
     <row r="41" spans="1:10" ht="16.5">
       <c r="A41" s="10" t="s">
@@ -5548,20 +6836,20 @@
       <c r="G41" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H41" s="13" t="s">
+      <c r="H41" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
+      <c r="I41" s="92"/>
+      <c r="J41" s="92"/>
     </row>
     <row r="42" spans="1:10" ht="16.5">
       <c r="A42" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="13"/>
+      <c r="C42" s="92"/>
       <c r="D42" s="10" t="s">
         <v>117</v>
       </c>
@@ -5570,9 +6858,9 @@
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="11"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
+      <c r="H42" s="94"/>
+      <c r="I42" s="94"/>
+      <c r="J42" s="94"/>
     </row>
     <row r="43" spans="1:10">
       <c r="B43" s="4"/>
@@ -5597,28 +6885,14 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B6:J6"/>
     <mergeCell ref="B30:J30"/>
     <mergeCell ref="B32:J32"/>
     <mergeCell ref="B34:J34"/>
     <mergeCell ref="H42:J42"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="B8:J8"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="H22:J22"/>
     <mergeCell ref="H21:J21"/>
@@ -5630,15 +6904,29 @@
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="H26:J26"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B8:J8"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B6:J6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5904,7 +7192,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="13" t="s">
         <v>248</v>
       </c>
       <c r="B31" t="s">
@@ -5936,12 +7224,12 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="13" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="165">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="13" t="s">
         <v>299</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -6078,7 +7366,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="B55" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
   </sheetData>
@@ -6090,1082 +7378,1231 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" style="29" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="29"/>
+    <col min="1" max="1" width="33.28515625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" style="24" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A1" s="39" t="s">
-        <v>717</v>
-      </c>
-      <c r="B1" s="40" t="s">
+      <c r="A1" s="34" t="s">
+        <v>715</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>418</v>
       </c>
-      <c r="C1" s="40" t="s">
-        <v>419</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>718</v>
+      <c r="D1" s="36" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="24" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="54" t="s">
         <v>376</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="60" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="55" t="s">
         <v>378</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="36"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="56" t="s">
         <v>377</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="60" t="s">
         <v>379</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="D6" s="66"/>
+      <c r="D6" s="61"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="65" t="s">
-        <v>416</v>
-      </c>
-      <c r="C7" s="29" t="s">
+      <c r="A7" s="60" t="s">
+        <v>415</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="D7" s="61" t="s">
         <v>414</v>
       </c>
-      <c r="D7" s="66" t="s">
-        <v>415</v>
-      </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="69"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="64"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="65" t="s">
         <v>381</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="64"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="66" t="s">
         <v>382</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>706</v>
-      </c>
-      <c r="C10" s="29" t="s">
+      <c r="B10" s="24" t="s">
+        <v>704</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>383</v>
       </c>
-      <c r="D10" s="66"/>
+      <c r="D10" s="61"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A11" s="72"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="69"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="64"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="13" spans="1:4">
-      <c r="A13" s="70" t="s">
-        <v>792</v>
-      </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="64"/>
+      <c r="A13" s="65" t="s">
+        <v>790</v>
+      </c>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="59"/>
     </row>
     <row r="14" spans="1:4" ht="60">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="66" t="s">
+        <v>844</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>846</v>
+      </c>
+      <c r="C14" s="32" t="s">
         <v>847</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>849</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>850</v>
-      </c>
-      <c r="D14" s="66"/>
+      <c r="D14" s="61"/>
     </row>
     <row r="15" spans="1:4" ht="90">
-      <c r="A15" s="71"/>
-      <c r="C15" s="37" t="s">
-        <v>793</v>
-      </c>
-      <c r="D15" s="66"/>
+      <c r="A15" s="66"/>
+      <c r="C15" s="32" t="s">
+        <v>791</v>
+      </c>
+      <c r="D15" s="61"/>
     </row>
     <row r="16" spans="1:4" ht="45">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="66" t="s">
+        <v>842</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>845</v>
       </c>
-      <c r="B16" s="29" t="s">
-        <v>848</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>846</v>
-      </c>
-      <c r="D16" s="66"/>
+      <c r="C16" s="32" t="s">
+        <v>843</v>
+      </c>
+      <c r="D16" s="61"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="66" t="s">
+        <v>828</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>829</v>
+      </c>
+      <c r="D17" s="61"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="B18" s="76" t="s">
         <v>831</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="C18" s="24" t="s">
+        <v>838</v>
+      </c>
+      <c r="D18" s="61"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="76" t="s">
         <v>832</v>
       </c>
-      <c r="D17" s="66"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="29" t="s">
+      <c r="B19" s="76" t="s">
         <v>833</v>
       </c>
-      <c r="B18" s="82" t="s">
+      <c r="C19" s="76" t="s">
+        <v>839</v>
+      </c>
+      <c r="D19" s="61"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="82" t="s">
         <v>834</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="B20" s="76" t="s">
+        <v>835</v>
+      </c>
+      <c r="C20" s="76" t="s">
+        <v>840</v>
+      </c>
+      <c r="D20" s="61"/>
+    </row>
+    <row r="21" spans="1:4" ht="75">
+      <c r="A21" s="76" t="s">
+        <v>836</v>
+      </c>
+      <c r="B21" s="76" t="s">
+        <v>837</v>
+      </c>
+      <c r="C21" s="32" t="s">
         <v>841</v>
       </c>
-      <c r="D18" s="66"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="82" t="s">
-        <v>835</v>
-      </c>
-      <c r="B19" s="82" t="s">
-        <v>836</v>
-      </c>
-      <c r="C19" s="82" t="s">
-        <v>842</v>
-      </c>
-      <c r="D19" s="66"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="88" t="s">
-        <v>837</v>
-      </c>
-      <c r="B20" s="82" t="s">
-        <v>838</v>
-      </c>
-      <c r="C20" s="82" t="s">
-        <v>843</v>
-      </c>
-      <c r="D20" s="66"/>
-    </row>
-    <row r="21" spans="1:4" ht="75">
-      <c r="A21" s="82" t="s">
-        <v>839</v>
-      </c>
-      <c r="B21" s="82" t="s">
-        <v>840</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>844</v>
-      </c>
-      <c r="D21" s="66"/>
+      <c r="D21" s="61"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="71"/>
-      <c r="B22" s="82"/>
-      <c r="D22" s="66"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="76"/>
+      <c r="D22" s="61"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="71"/>
-      <c r="D23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="D23" s="61"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A24" s="72"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="69"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="64"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="26" spans="1:4">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="65" t="s">
+        <v>792</v>
+      </c>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="59"/>
+    </row>
+    <row r="27" spans="1:4" ht="45">
+      <c r="A27" s="66" t="s">
+        <v>793</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>795</v>
+      </c>
+      <c r="C27" s="32" t="s">
         <v>794</v>
       </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="64"/>
-    </row>
-    <row r="27" spans="1:4" ht="45">
-      <c r="A27" s="71" t="s">
-        <v>795</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>797</v>
-      </c>
-      <c r="C27" s="37" t="s">
+      <c r="D27" s="61"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="66"/>
+      <c r="C28" s="24" t="s">
+        <v>807</v>
+      </c>
+      <c r="D28" s="61"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A29" s="67"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="64"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="31" spans="1:4">
+      <c r="A31" s="65" t="s">
         <v>796</v>
       </c>
-      <c r="D27" s="66"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="71"/>
-      <c r="C28" s="29" t="s">
-        <v>810</v>
-      </c>
-      <c r="D28" s="66"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A29" s="72"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="69"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="33" spans="1:4">
-      <c r="A33" s="70" t="s">
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="59"/>
+    </row>
+    <row r="32" spans="1:4" ht="60">
+      <c r="A32" s="87" t="s">
+        <v>874</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>875</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>876</v>
+      </c>
+      <c r="D32" s="61"/>
+    </row>
+    <row r="33" spans="1:4" ht="105">
+      <c r="A33" s="66" t="s">
+        <v>877</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>878</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>880</v>
+      </c>
+      <c r="D33" s="61" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="66"/>
+      <c r="D34" s="61"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A35" s="67"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="64"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="40" spans="1:4">
+      <c r="A40" s="65" t="s">
+        <v>696</v>
+      </c>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="59"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="68" t="s">
+        <v>385</v>
+      </c>
+      <c r="D41" s="61"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="68" t="s">
+        <v>386</v>
+      </c>
+      <c r="D42" s="61"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="68" t="s">
+        <v>697</v>
+      </c>
+      <c r="B43" s="24" t="s">
         <v>698</v>
       </c>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="64"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="73" t="s">
-        <v>385</v>
-      </c>
-      <c r="D34" s="66"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="73" t="s">
-        <v>386</v>
-      </c>
-      <c r="D35" s="66"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="73" t="s">
+      <c r="D43" s="61"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="68" t="s">
+        <v>387</v>
+      </c>
+      <c r="B44" s="24" t="s">
         <v>699</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="D44" s="61"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="68" t="s">
+        <v>391</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="D45" s="61"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="68" t="s">
         <v>700</v>
       </c>
-      <c r="D36" s="66"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="73" t="s">
-        <v>387</v>
-      </c>
-      <c r="B37" s="29" t="s">
+      <c r="B46" s="24" t="s">
         <v>701</v>
       </c>
-      <c r="D37" s="66"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="73" t="s">
-        <v>391</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>392</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>393</v>
-      </c>
-      <c r="D38" s="66"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="73" t="s">
+      <c r="D46" s="61"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="68" t="s">
+        <v>388</v>
+      </c>
+      <c r="B47" s="24" t="s">
         <v>702</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="D47" s="61"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="D48" s="61"/>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A49" s="69"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="64"/>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="51" spans="1:4">
+      <c r="A51" s="65" t="s">
         <v>703</v>
       </c>
-      <c r="D39" s="66"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="73" t="s">
-        <v>388</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>704</v>
-      </c>
-      <c r="D40" s="66"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="73" t="s">
-        <v>389</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>390</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>394</v>
-      </c>
-      <c r="D41" s="66"/>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A42" s="74"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="69"/>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="44" spans="1:4">
-      <c r="A44" s="70" t="s">
-        <v>705</v>
-      </c>
-      <c r="B44" s="63"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="64"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="75" t="s">
+      <c r="B51" s="58"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="59"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="70" t="s">
         <v>395</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B52" s="24" t="s">
+        <v>680</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>717</v>
+      </c>
+      <c r="D52" s="61" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="66" t="s">
+        <v>401</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="D53" s="61" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="66" t="s">
         <v>681</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C54" s="24" t="s">
+        <v>682</v>
+      </c>
+      <c r="D54" s="61"/>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A55" s="67"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="64"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="65" t="s">
+        <v>995</v>
+      </c>
+      <c r="B56" s="58" t="s">
+        <v>996</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>997</v>
+      </c>
+      <c r="D56" s="59" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="66" t="s">
+        <v>998</v>
+      </c>
+      <c r="B57" s="76" t="s">
+        <v>999</v>
+      </c>
+      <c r="C57" s="76" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D57" s="61"/>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A58" s="67"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="64"/>
+    </row>
+    <row r="59" spans="1:4" ht="30">
+      <c r="A59" s="65" t="s">
+        <v>404</v>
+      </c>
+      <c r="C59" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="D59" s="59" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A60" s="67"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="64"/>
+    </row>
+    <row r="61" spans="1:4" ht="90">
+      <c r="A61" s="65" t="s">
+        <v>406</v>
+      </c>
+      <c r="C61" s="71" t="s">
+        <v>407</v>
+      </c>
+      <c r="D61" s="59" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A62" s="67"/>
+      <c r="B62" s="72"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="64"/>
+    </row>
+    <row r="63" spans="1:4" ht="30">
+      <c r="A63" s="65" t="s">
+        <v>408</v>
+      </c>
+      <c r="C63" s="71" t="s">
+        <v>409</v>
+      </c>
+      <c r="D63" s="59" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A64" s="67"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="64"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="65" t="s">
+        <v>412</v>
+      </c>
+      <c r="B65" s="58"/>
+      <c r="C65" s="71" t="s">
+        <v>413</v>
+      </c>
+      <c r="D65" s="59" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A66" s="67"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="64"/>
+    </row>
+    <row r="67" spans="1:4" ht="45">
+      <c r="A67" s="73" t="s">
+        <v>683</v>
+      </c>
+      <c r="B67" s="71" t="s">
+        <v>750</v>
+      </c>
+      <c r="C67" s="71" t="s">
+        <v>684</v>
+      </c>
+      <c r="D67" s="59"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="74"/>
+      <c r="B68" s="32" t="s">
+        <v>685</v>
+      </c>
+      <c r="C68" s="32" t="s">
+        <v>686</v>
+      </c>
+      <c r="D68" s="61"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="74" t="s">
+        <v>687</v>
+      </c>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32" t="s">
+        <v>688</v>
+      </c>
+      <c r="D69" s="61"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="74"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="D70" s="61"/>
+    </row>
+    <row r="71" spans="1:4" ht="90">
+      <c r="A71" s="74" t="s">
+        <v>718</v>
+      </c>
+      <c r="B71" s="32" t="s">
         <v>719</v>
       </c>
-      <c r="D45" s="66" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="71" t="s">
-        <v>401</v>
-      </c>
-      <c r="B46" s="29" t="s">
-        <v>404</v>
-      </c>
-      <c r="D46" s="66" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="71" t="s">
-        <v>682</v>
-      </c>
-      <c r="C47" s="29" t="s">
-        <v>683</v>
-      </c>
-      <c r="D47" s="66"/>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A48" s="72"/>
-      <c r="B48" s="68"/>
-      <c r="C48" s="68"/>
-      <c r="D48" s="69"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="70" t="s">
-        <v>403</v>
-      </c>
-      <c r="B49" s="63"/>
-      <c r="D49" s="64" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A50" s="72"/>
-      <c r="B50" s="68"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="69"/>
-    </row>
-    <row r="51" spans="1:4" ht="30">
-      <c r="A51" s="70" t="s">
-        <v>405</v>
-      </c>
-      <c r="C51" s="76" t="s">
-        <v>406</v>
-      </c>
-      <c r="D51" s="64" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A52" s="72"/>
-      <c r="B52" s="77"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="69"/>
-    </row>
-    <row r="53" spans="1:4" ht="90">
-      <c r="A53" s="70" t="s">
-        <v>407</v>
-      </c>
-      <c r="C53" s="76" t="s">
-        <v>408</v>
-      </c>
-      <c r="D53" s="64" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A54" s="72"/>
-      <c r="B54" s="77"/>
-      <c r="C54" s="68"/>
-      <c r="D54" s="69"/>
-    </row>
-    <row r="55" spans="1:4" ht="30">
-      <c r="A55" s="70" t="s">
-        <v>409</v>
-      </c>
-      <c r="C55" s="76" t="s">
-        <v>410</v>
-      </c>
-      <c r="D55" s="64" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A56" s="72"/>
-      <c r="B56" s="68"/>
-      <c r="C56" s="68"/>
-      <c r="D56" s="69"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="70" t="s">
-        <v>413</v>
-      </c>
-      <c r="B57" s="63"/>
-      <c r="C57" s="76" t="s">
-        <v>414</v>
-      </c>
-      <c r="D57" s="64" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A58" s="72"/>
-      <c r="B58" s="68"/>
-      <c r="C58" s="68"/>
-      <c r="D58" s="69"/>
-    </row>
-    <row r="59" spans="1:4" ht="45">
-      <c r="A59" s="78" t="s">
-        <v>684</v>
-      </c>
-      <c r="B59" s="76" t="s">
+      <c r="C71" s="32" t="s">
+        <v>720</v>
+      </c>
+      <c r="D71" s="61"/>
+    </row>
+    <row r="72" spans="1:4" ht="105">
+      <c r="A72" s="74"/>
+      <c r="B72" s="32" t="s">
+        <v>725</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>721</v>
+      </c>
+      <c r="D72" s="61"/>
+    </row>
+    <row r="73" spans="1:4" ht="75">
+      <c r="A73" s="74"/>
+      <c r="B73" s="32" t="s">
+        <v>726</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>722</v>
+      </c>
+      <c r="D73" s="61"/>
+    </row>
+    <row r="74" spans="1:4" ht="75">
+      <c r="A74" s="74"/>
+      <c r="B74" s="32" t="s">
+        <v>727</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>723</v>
+      </c>
+      <c r="D74" s="61"/>
+    </row>
+    <row r="75" spans="1:4" ht="75">
+      <c r="A75" s="74"/>
+      <c r="B75" s="32" t="s">
+        <v>728</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>724</v>
+      </c>
+      <c r="D75" s="61"/>
+    </row>
+    <row r="76" spans="1:4" ht="30">
+      <c r="A76" s="74"/>
+      <c r="B76" s="32" t="s">
+        <v>730</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>729</v>
+      </c>
+      <c r="D76" s="61"/>
+    </row>
+    <row r="77" spans="1:4" ht="45">
+      <c r="A77" s="32" t="s">
+        <v>731</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>732</v>
+      </c>
+      <c r="C77" s="32" t="s">
+        <v>733</v>
+      </c>
+      <c r="D77" s="61"/>
+    </row>
+    <row r="78" spans="1:4" ht="45">
+      <c r="A78" s="74"/>
+      <c r="B78" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="C78" s="32" t="s">
+        <v>735</v>
+      </c>
+      <c r="D78" s="61"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="74"/>
+      <c r="B79" s="95" t="s">
+        <v>736</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="D79" s="61"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="74"/>
+      <c r="B80" s="95"/>
+      <c r="C80" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D80" s="61"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="74"/>
+      <c r="B81" s="95"/>
+      <c r="C81" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D81" s="61"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="74"/>
+      <c r="B82" s="95"/>
+      <c r="C82" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D82" s="61"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="74"/>
+      <c r="B83" s="95"/>
+      <c r="C83" s="86" t="s">
+        <v>741</v>
+      </c>
+      <c r="D83" s="61"/>
+    </row>
+    <row r="84" spans="1:4" ht="30">
+      <c r="A84" s="74"/>
+      <c r="B84" s="95"/>
+      <c r="C84" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="D84" s="61"/>
+    </row>
+    <row r="85" spans="1:4" ht="30">
+      <c r="A85" s="74"/>
+      <c r="B85" s="95"/>
+      <c r="C85" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="D85" s="61"/>
+    </row>
+    <row r="86" spans="1:4" ht="30">
+      <c r="A86" s="74"/>
+      <c r="B86" s="83" t="s">
+        <v>872</v>
+      </c>
+      <c r="C86" s="86" t="s">
+        <v>873</v>
+      </c>
+      <c r="D86" s="61"/>
+    </row>
+    <row r="87" spans="1:4" ht="30">
+      <c r="A87" s="74"/>
+      <c r="B87" s="32" t="s">
+        <v>744</v>
+      </c>
+      <c r="C87" s="75" t="s">
+        <v>745</v>
+      </c>
+      <c r="D87" s="61"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="74"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="75" t="s">
+        <v>746</v>
+      </c>
+      <c r="D88" s="61"/>
+    </row>
+    <row r="89" spans="1:4" ht="45">
+      <c r="A89" s="74"/>
+      <c r="B89" s="32"/>
+      <c r="C89" s="75" t="s">
+        <v>747</v>
+      </c>
+      <c r="D89" s="61"/>
+    </row>
+    <row r="90" spans="1:4" ht="75">
+      <c r="A90" s="74"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="32" t="s">
+        <v>748</v>
+      </c>
+      <c r="D90" s="61"/>
+    </row>
+    <row r="91" spans="1:4" ht="45">
+      <c r="A91" s="74"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="75" t="s">
+        <v>749</v>
+      </c>
+      <c r="D91" s="61"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="66"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="61"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="66"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="61"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="66"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="61"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="66"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="61"/>
+    </row>
+    <row r="96" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A96" s="67"/>
+      <c r="B96" s="63"/>
+      <c r="C96" s="63"/>
+      <c r="D96" s="64"/>
+    </row>
+    <row r="97" spans="1:5" ht="30">
+      <c r="A97" s="65" t="s">
+        <v>690</v>
+      </c>
+      <c r="B97" s="58" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C97" s="71" t="s">
+        <v>691</v>
+      </c>
+      <c r="D97" s="59"/>
+      <c r="E97" s="96"/>
+    </row>
+    <row r="98" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A98" s="67"/>
+      <c r="B98" s="63"/>
+      <c r="C98" s="63"/>
+      <c r="D98" s="64"/>
+    </row>
+    <row r="99" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="100" spans="1:5">
+      <c r="A100" s="65" t="s">
+        <v>756</v>
+      </c>
+      <c r="B100" s="58" t="s">
+        <v>751</v>
+      </c>
+      <c r="C100" s="58"/>
+      <c r="D100" s="59"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="66" t="s">
+        <v>755</v>
+      </c>
+      <c r="B101" s="24" t="s">
         <v>752</v>
       </c>
-      <c r="C59" s="76" t="s">
-        <v>685</v>
-      </c>
-      <c r="D59" s="64"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="79"/>
-      <c r="B60" s="37" t="s">
-        <v>686</v>
-      </c>
-      <c r="C60" s="37" t="s">
-        <v>687</v>
-      </c>
-      <c r="D60" s="66"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="79" t="s">
-        <v>688</v>
-      </c>
-      <c r="B61" s="37"/>
-      <c r="C61" s="37" t="s">
-        <v>689</v>
-      </c>
-      <c r="D61" s="66"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="79"/>
-      <c r="B62" s="37"/>
-      <c r="C62" s="37" t="s">
-        <v>690</v>
-      </c>
-      <c r="D62" s="66"/>
-    </row>
-    <row r="63" spans="1:4" ht="90">
-      <c r="A63" s="79" t="s">
-        <v>720</v>
-      </c>
-      <c r="B63" s="37" t="s">
-        <v>721</v>
-      </c>
-      <c r="C63" s="37" t="s">
-        <v>722</v>
-      </c>
-      <c r="D63" s="66"/>
-    </row>
-    <row r="64" spans="1:4" ht="105">
-      <c r="A64" s="79"/>
-      <c r="B64" s="37" t="s">
-        <v>727</v>
-      </c>
-      <c r="C64" s="37" t="s">
-        <v>723</v>
-      </c>
-      <c r="D64" s="66"/>
-    </row>
-    <row r="65" spans="1:4" ht="75">
-      <c r="A65" s="79"/>
-      <c r="B65" s="37" t="s">
-        <v>728</v>
-      </c>
-      <c r="C65" s="37" t="s">
-        <v>724</v>
-      </c>
-      <c r="D65" s="66"/>
-    </row>
-    <row r="66" spans="1:4" ht="75">
-      <c r="A66" s="79"/>
-      <c r="B66" s="37" t="s">
-        <v>729</v>
-      </c>
-      <c r="C66" s="37" t="s">
-        <v>725</v>
-      </c>
-      <c r="D66" s="66"/>
-    </row>
-    <row r="67" spans="1:4" ht="75">
-      <c r="A67" s="79"/>
-      <c r="B67" s="37" t="s">
-        <v>730</v>
-      </c>
-      <c r="C67" s="37" t="s">
-        <v>726</v>
-      </c>
-      <c r="D67" s="66"/>
-    </row>
-    <row r="68" spans="1:4" ht="30">
-      <c r="A68" s="79"/>
-      <c r="B68" s="37" t="s">
-        <v>732</v>
-      </c>
-      <c r="C68" s="37" t="s">
-        <v>731</v>
-      </c>
-      <c r="D68" s="66"/>
-    </row>
-    <row r="69" spans="1:4" ht="45">
-      <c r="A69" s="37" t="s">
-        <v>733</v>
-      </c>
-      <c r="B69" s="19" t="s">
-        <v>734</v>
-      </c>
-      <c r="C69" s="37" t="s">
-        <v>735</v>
-      </c>
-      <c r="D69" s="66"/>
-    </row>
-    <row r="70" spans="1:4" ht="45">
-      <c r="A70" s="79"/>
-      <c r="B70" s="19" t="s">
-        <v>736</v>
-      </c>
-      <c r="C70" s="37" t="s">
-        <v>737</v>
-      </c>
-      <c r="D70" s="66"/>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="79"/>
-      <c r="B71" s="80" t="s">
-        <v>738</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="D71" s="66"/>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="79"/>
-      <c r="B72" s="80"/>
-      <c r="C72" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="D72" s="66"/>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="79"/>
-      <c r="B73" s="80"/>
-      <c r="C73" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="D73" s="66"/>
-    </row>
-    <row r="74" spans="1:4" ht="30">
-      <c r="A74" s="79"/>
-      <c r="B74" s="80"/>
-      <c r="C74" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="D74" s="66"/>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="79"/>
-      <c r="B75" s="80"/>
-      <c r="C75" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="D75" s="66"/>
-    </row>
-    <row r="76" spans="1:4" ht="30">
-      <c r="A76" s="79"/>
-      <c r="B76" s="80"/>
-      <c r="C76" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="D76" s="66"/>
-    </row>
-    <row r="77" spans="1:4" ht="30">
-      <c r="A77" s="79"/>
-      <c r="B77" s="80"/>
-      <c r="C77" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="D77" s="66"/>
-    </row>
-    <row r="78" spans="1:4" ht="30">
-      <c r="A78" s="79"/>
-      <c r="B78" s="37" t="s">
-        <v>746</v>
-      </c>
-      <c r="C78" s="81" t="s">
-        <v>747</v>
-      </c>
-      <c r="D78" s="66"/>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="79"/>
-      <c r="B79" s="37"/>
-      <c r="C79" s="81" t="s">
-        <v>748</v>
-      </c>
-      <c r="D79" s="66"/>
-    </row>
-    <row r="80" spans="1:4" ht="60">
-      <c r="A80" s="79"/>
-      <c r="B80" s="37"/>
-      <c r="C80" s="81" t="s">
-        <v>749</v>
-      </c>
-      <c r="D80" s="66"/>
-    </row>
-    <row r="81" spans="1:4" ht="75">
-      <c r="A81" s="79"/>
-      <c r="B81" s="37"/>
-      <c r="C81" s="37" t="s">
-        <v>750</v>
-      </c>
-      <c r="D81" s="66"/>
-    </row>
-    <row r="82" spans="1:4" ht="45">
-      <c r="A82" s="79"/>
-      <c r="B82" s="37"/>
-      <c r="C82" s="81" t="s">
+      <c r="C101" s="24" t="s">
+        <v>758</v>
+      </c>
+      <c r="D101" s="61"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="66" t="s">
+        <v>754</v>
+      </c>
+      <c r="B102" s="76" t="s">
         <v>751</v>
       </c>
-      <c r="D82" s="66"/>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="71"/>
-      <c r="B83" s="38"/>
-      <c r="C83" s="37"/>
-      <c r="D83" s="66"/>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="71"/>
-      <c r="B84" s="38"/>
-      <c r="C84" s="37"/>
-      <c r="D84" s="66"/>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="71"/>
-      <c r="B85" s="38"/>
-      <c r="C85" s="37"/>
-      <c r="D85" s="66"/>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="71"/>
-      <c r="C86" s="37"/>
-      <c r="D86" s="66"/>
-    </row>
-    <row r="87" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A87" s="72"/>
-      <c r="B87" s="68"/>
-      <c r="C87" s="68"/>
-      <c r="D87" s="69"/>
-    </row>
-    <row r="88" spans="1:4" ht="45">
-      <c r="A88" s="70" t="s">
-        <v>691</v>
-      </c>
-      <c r="B88" s="76" t="s">
-        <v>692</v>
-      </c>
-      <c r="C88" s="63" t="s">
-        <v>693</v>
-      </c>
-      <c r="D88" s="64"/>
-    </row>
-    <row r="89" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A89" s="72"/>
-      <c r="B89" s="68"/>
-      <c r="C89" s="68"/>
-      <c r="D89" s="69"/>
-    </row>
-    <row r="90" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="91" spans="1:4">
-      <c r="A91" s="70" t="s">
-        <v>758</v>
-      </c>
-      <c r="B91" s="63" t="s">
+      <c r="D102" s="61"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="66" t="s">
+        <v>757</v>
+      </c>
+      <c r="B103" s="76" t="s">
         <v>753</v>
       </c>
-      <c r="C91" s="63"/>
-      <c r="D91" s="64"/>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="71" t="s">
-        <v>757</v>
-      </c>
-      <c r="B92" s="29" t="s">
-        <v>754</v>
-      </c>
-      <c r="C92" s="29" t="s">
+      <c r="D103" s="61"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="66"/>
+      <c r="D104" s="61"/>
+    </row>
+    <row r="105" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A105" s="67"/>
+      <c r="B105" s="63"/>
+      <c r="C105" s="63"/>
+      <c r="D105" s="64"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>431</v>
+      </c>
+      <c r="B107" s="77" t="s">
         <v>760</v>
       </c>
-      <c r="D92" s="66"/>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="71" t="s">
-        <v>756</v>
-      </c>
-      <c r="B93" s="82" t="s">
-        <v>753</v>
-      </c>
-      <c r="D93" s="66"/>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="71" t="s">
-        <v>759</v>
-      </c>
-      <c r="B94" s="82" t="s">
-        <v>755</v>
-      </c>
-      <c r="D94" s="66"/>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="71"/>
-      <c r="D95" s="66"/>
-    </row>
-    <row r="96" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A96" s="72"/>
-      <c r="B96" s="68"/>
-      <c r="C96" s="68"/>
-      <c r="D96" s="69"/>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>432</v>
-      </c>
-      <c r="B98" s="83" t="s">
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>761</v>
+      </c>
+      <c r="B108" s="77" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>777</v>
+      </c>
+      <c r="B109" s="77" t="s">
         <v>763</v>
       </c>
-      <c r="B99" s="83" t="s">
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>437</v>
+      </c>
+      <c r="B110" s="77" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>779</v>
-      </c>
-      <c r="B100" s="83" t="s">
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>438</v>
-      </c>
-      <c r="B101" s="83" t="s">
+      <c r="B111" s="77" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>776</v>
+      </c>
+      <c r="B112" s="77" t="s">
         <v>767</v>
-      </c>
-      <c r="B102" s="83" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>778</v>
-      </c>
-      <c r="B103" s="83" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>770</v>
-      </c>
-      <c r="B104" s="83" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>772</v>
-      </c>
-      <c r="B105" s="83" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>774</v>
-      </c>
-      <c r="B106" s="83" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>776</v>
-      </c>
-      <c r="B107" s="83" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108"/>
-      <c r="B108" s="83"/>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>780</v>
-      </c>
-      <c r="B109" s="83" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>782</v>
-      </c>
-      <c r="B110" s="83" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>784</v>
-      </c>
-      <c r="B111" s="83" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>786</v>
-      </c>
-      <c r="B112" s="83" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>788</v>
-      </c>
-      <c r="B113" s="83" t="s">
-        <v>789</v>
+        <v>768</v>
+      </c>
+      <c r="B113" s="77" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>790</v>
-      </c>
-      <c r="B114" s="83" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="15.75" thickBot="1"/>
+        <v>770</v>
+      </c>
+      <c r="B114" s="77" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>772</v>
+      </c>
+      <c r="B115" s="77" t="s">
+        <v>773</v>
+      </c>
+    </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="84" t="s">
+      <c r="A116" t="s">
+        <v>774</v>
+      </c>
+      <c r="B116" s="77" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117"/>
+      <c r="B117" s="77"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>778</v>
+      </c>
+      <c r="B118" s="77" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>780</v>
+      </c>
+      <c r="B119" s="77" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>782</v>
+      </c>
+      <c r="B120" s="77" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>784</v>
+      </c>
+      <c r="B121" s="77" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>786</v>
+      </c>
+      <c r="B122" s="77" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>788</v>
+      </c>
+      <c r="B123" s="77" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="125" spans="1:3">
+      <c r="A125" s="78" t="s">
+        <v>796</v>
+      </c>
+      <c r="B125" s="79" t="s">
+        <v>797</v>
+      </c>
+      <c r="C125" s="59"/>
+    </row>
+    <row r="126" spans="1:3" ht="75">
+      <c r="A126" s="80" t="s">
+        <v>800</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>804</v>
+      </c>
+      <c r="C126" s="81" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="120">
+      <c r="A127" s="80" t="s">
+        <v>803</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>967</v>
+      </c>
+      <c r="C127" s="81" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="90">
+      <c r="A128" s="80" t="s">
+        <v>801</v>
+      </c>
+      <c r="B128" s="24" t="s">
         <v>798</v>
       </c>
-      <c r="B116" s="85" t="s">
+      <c r="C128" s="81" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="80" t="s">
+        <v>802</v>
+      </c>
+      <c r="B129" s="24" t="s">
         <v>799</v>
       </c>
-      <c r="C116" s="64"/>
-    </row>
-    <row r="117" spans="1:3" ht="75">
-      <c r="A117" s="86" t="s">
-        <v>802</v>
-      </c>
-      <c r="B117" s="19" t="s">
-        <v>807</v>
-      </c>
-      <c r="C117" s="87" t="s">
+      <c r="C129" s="61"/>
+    </row>
+    <row r="130" spans="1:3" ht="45">
+      <c r="A130" s="66" t="s">
+        <v>808</v>
+      </c>
+      <c r="B130" s="24" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" ht="120">
-      <c r="A118" s="86" t="s">
-        <v>805</v>
-      </c>
-      <c r="B118" s="19" t="s">
-        <v>806</v>
-      </c>
-      <c r="C118" s="87" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="86" t="s">
-        <v>803</v>
-      </c>
-      <c r="B119" s="29" t="s">
-        <v>800</v>
-      </c>
-      <c r="C119" s="66"/>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="86" t="s">
-        <v>804</v>
-      </c>
-      <c r="B120" s="29" t="s">
-        <v>801</v>
-      </c>
-      <c r="C120" s="66"/>
-    </row>
-    <row r="121" spans="1:3" ht="45">
-      <c r="A121" s="71" t="s">
+      <c r="C130" s="81" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="66" t="s">
         <v>811</v>
       </c>
-      <c r="B121" s="29" t="s">
+      <c r="B131" s="76" t="s">
         <v>812</v>
       </c>
-      <c r="C121" s="87" t="s">
+      <c r="C131" s="61" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="66"/>
+      <c r="B132" s="76" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="71" t="s">
-        <v>814</v>
-      </c>
-      <c r="B122" s="82" t="s">
+      <c r="C132" s="61" t="s">
         <v>815</v>
       </c>
-      <c r="C122" s="66" t="s">
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="66" t="s">
+        <v>820</v>
+      </c>
+      <c r="B133" s="76" t="s">
+        <v>821</v>
+      </c>
+      <c r="C133" s="61"/>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="66" t="s">
+        <v>822</v>
+      </c>
+      <c r="B134" s="76" t="s">
+        <v>823</v>
+      </c>
+      <c r="C134" s="61"/>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="66" t="s">
+        <v>824</v>
+      </c>
+      <c r="B135" s="76" t="s">
+        <v>825</v>
+      </c>
+      <c r="C135" s="61"/>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="66" t="s">
+        <v>826</v>
+      </c>
+      <c r="B136" s="76" t="s">
+        <v>827</v>
+      </c>
+      <c r="C136" s="61"/>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="66" t="s">
+        <v>865</v>
+      </c>
+      <c r="B137" s="76"/>
+      <c r="C137" s="61"/>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="66"/>
+      <c r="C138" s="61"/>
+    </row>
+    <row r="139" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A139" s="67"/>
+      <c r="B139" s="63"/>
+      <c r="C139" s="64"/>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="24" t="s">
+        <v>816</v>
+      </c>
+      <c r="B141" s="24" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="71"/>
-      <c r="B123" s="82" t="s">
-        <v>816</v>
-      </c>
-      <c r="C123" s="66" t="s">
+    <row r="142" spans="1:3">
+      <c r="A142" s="24" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="71" t="s">
-        <v>823</v>
-      </c>
-      <c r="B124" s="82" t="s">
-        <v>824</v>
-      </c>
-      <c r="C124" s="66"/>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="71" t="s">
-        <v>825</v>
-      </c>
-      <c r="B125" s="82" t="s">
-        <v>826</v>
-      </c>
-      <c r="C125" s="66"/>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="71" t="s">
-        <v>827</v>
-      </c>
-      <c r="B126" s="82" t="s">
-        <v>828</v>
-      </c>
-      <c r="C126" s="66"/>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="71" t="s">
-        <v>829</v>
-      </c>
-      <c r="B127" s="82" t="s">
-        <v>830</v>
-      </c>
-      <c r="C127" s="66"/>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="71" t="s">
-        <v>868</v>
-      </c>
-      <c r="B128" s="82"/>
-      <c r="C128" s="66"/>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="71"/>
-      <c r="C129" s="66"/>
-    </row>
-    <row r="130" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A130" s="72"/>
-      <c r="B130" s="68"/>
-      <c r="C130" s="69"/>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="29" t="s">
+      <c r="B142" s="24" t="s">
         <v>819</v>
       </c>
-      <c r="B132" s="29" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="29" t="s">
-        <v>821</v>
-      </c>
-      <c r="B133" s="29" t="s">
-        <v>822</v>
-      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B144" s="24" t="s">
+        <v>969</v>
+      </c>
+      <c r="C144" s="32"/>
+    </row>
+    <row r="145" spans="1:3" ht="60">
+      <c r="A145" s="65" t="s">
+        <v>968</v>
+      </c>
+      <c r="B145" s="71" t="s">
+        <v>974</v>
+      </c>
+      <c r="C145" s="108" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="105">
+      <c r="A146" s="80" t="s">
+        <v>975</v>
+      </c>
+      <c r="B146" s="32" t="s">
+        <v>977</v>
+      </c>
+      <c r="C146" s="81" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="75">
+      <c r="A147" s="80"/>
+      <c r="B147" s="32"/>
+      <c r="C147" s="81" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="120">
+      <c r="A148" s="80"/>
+      <c r="B148" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="C148" s="81" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A149" s="109"/>
+      <c r="B149" s="110"/>
+      <c r="C149" s="111"/>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="76"/>
+      <c r="B150" s="76"/>
+      <c r="C150" s="32"/>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="76"/>
+      <c r="B151" s="76"/>
+      <c r="C151" s="32"/>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="76"/>
+      <c r="B152" s="76"/>
+      <c r="C152" s="32"/>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="76"/>
+      <c r="B153" s="76"/>
+      <c r="C153" s="32"/>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="76"/>
+      <c r="B154" s="76"/>
+      <c r="C154" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B71:B77"/>
+    <mergeCell ref="B79:B85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7174,10 +8611,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7188,1322 +8625,1344 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="37" t="s">
+        <v>692</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>693</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>694</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="D1" s="39" t="s">
         <v>695</v>
       </c>
-      <c r="C1" s="43" t="s">
-        <v>696</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>697</v>
-      </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="41" t="s">
+        <v>416</v>
+      </c>
+      <c r="B2" s="42" t="s">
         <v>417</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="C2" s="42" t="s">
         <v>418</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="D2" s="26"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="43" t="s">
         <v>419</v>
       </c>
-      <c r="D2" s="31"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="48" t="s">
+      <c r="B3" s="22" t="s">
         <v>420</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="C3" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="D3" s="28"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="43" t="s">
         <v>422</v>
       </c>
-      <c r="D3" s="33"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="48" t="s">
+      <c r="B4" s="22" t="s">
         <v>423</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="C4" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="D4" s="28"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="43" t="s">
         <v>425</v>
       </c>
-      <c r="D4" s="33"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="48" t="s">
+      <c r="B5" s="22" t="s">
         <v>426</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="C5" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="D5" s="28"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="43" t="s">
         <v>428</v>
       </c>
-      <c r="D5" s="33"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="48" t="s">
+      <c r="B6" s="22" t="s">
         <v>429</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="C6" s="21" t="s">
         <v>430</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="D6" s="28"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="43" t="s">
         <v>431</v>
       </c>
-      <c r="D6" s="33"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="48" t="s">
+      <c r="B7" s="22" t="s">
         <v>432</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="C7" s="21" t="s">
         <v>433</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="D7" s="28"/>
+    </row>
+    <row r="8" spans="1:4" ht="30">
+      <c r="A8" s="43" t="s">
         <v>434</v>
       </c>
-      <c r="D7" s="33"/>
-    </row>
-    <row r="8" spans="1:4" ht="30">
-      <c r="A8" s="48" t="s">
+      <c r="B8" s="22" t="s">
         <v>435</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="C8" s="21" t="s">
         <v>436</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="D8" s="28"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="43" t="s">
         <v>437</v>
       </c>
-      <c r="D8" s="33"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="48" t="s">
+      <c r="B9" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="C9" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="D9" s="28"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="43" t="s">
         <v>440</v>
       </c>
-      <c r="D9" s="33"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="48" t="s">
+      <c r="B10" s="22" t="s">
         <v>441</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="C10" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="D10" s="28"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="43" t="s">
         <v>443</v>
       </c>
-      <c r="D10" s="33"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="48" t="s">
+      <c r="B11" s="22" t="s">
         <v>444</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="C11" s="21" t="s">
         <v>445</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="D11" s="28"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="43" t="s">
         <v>446</v>
       </c>
-      <c r="D11" s="33"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="48" t="s">
+      <c r="B12" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="C12" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="D12" s="28"/>
+    </row>
+    <row r="13" spans="1:4" ht="30">
+      <c r="A13" s="43" t="s">
         <v>448</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>446</v>
-      </c>
-      <c r="D12" s="33"/>
-    </row>
-    <row r="13" spans="1:4" ht="30">
-      <c r="A13" s="48" t="s">
+      <c r="B13" s="22" t="s">
         <v>449</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="C13" s="21" t="s">
         <v>450</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="D13" s="28"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="43" t="s">
         <v>451</v>
       </c>
-      <c r="D13" s="33"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="48" t="s">
+      <c r="B14" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="C14" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="D14" s="28"/>
+    </row>
+    <row r="15" spans="1:4" ht="30">
+      <c r="A15" s="43" t="s">
         <v>454</v>
       </c>
-      <c r="D14" s="33"/>
-    </row>
-    <row r="15" spans="1:4" ht="30">
-      <c r="A15" s="48" t="s">
+      <c r="B15" s="22" t="s">
         <v>455</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="C15" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="D15" s="28"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="43" t="s">
         <v>457</v>
       </c>
-      <c r="D15" s="33"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="48" t="s">
+      <c r="B16" s="22" t="s">
         <v>458</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="C16" s="21" t="s">
         <v>459</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="D16" s="28"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="43" t="s">
         <v>460</v>
       </c>
-      <c r="D16" s="33"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="48" t="s">
+      <c r="B17" s="22" t="s">
         <v>461</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="C17" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="D17" s="28"/>
+    </row>
+    <row r="18" spans="1:4" ht="30">
+      <c r="A18" s="43" t="s">
         <v>463</v>
       </c>
-      <c r="D17" s="33"/>
-    </row>
-    <row r="18" spans="1:4" ht="30">
-      <c r="A18" s="48" t="s">
+      <c r="B18" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="C18" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="D18" s="28"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="43" t="s">
         <v>466</v>
       </c>
-      <c r="D18" s="33"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="48" t="s">
+      <c r="B19" s="22" t="s">
         <v>467</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="C19" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="D19" s="28"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="43" t="s">
         <v>468</v>
       </c>
-      <c r="C19" s="26" t="s">
-        <v>446</v>
-      </c>
-      <c r="D19" s="33"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="48" t="s">
+      <c r="B20" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="C20" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="D20" s="28"/>
+    </row>
+    <row r="21" spans="1:4" ht="30.75">
+      <c r="A21" s="43" t="s">
         <v>471</v>
       </c>
-      <c r="D20" s="33"/>
-    </row>
-    <row r="21" spans="1:4" ht="30.75">
-      <c r="A21" s="48" t="s">
+      <c r="B21" s="22" t="s">
         <v>472</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="C21" s="21" t="s">
         <v>473</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="D21" s="28"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="43" t="s">
         <v>474</v>
       </c>
-      <c r="D21" s="33"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="48" t="s">
+      <c r="B22" s="22" t="s">
         <v>475</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="C22" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="D22" s="28"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="43" t="s">
         <v>477</v>
       </c>
-      <c r="D22" s="33"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="48" t="s">
+      <c r="B23" s="22" t="s">
         <v>478</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="C23" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="D23" s="28"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="43" t="s">
         <v>480</v>
       </c>
-      <c r="D23" s="33"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="48" t="s">
+      <c r="B24" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="C24" s="21" t="s">
         <v>482</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="D24" s="28"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="43" t="s">
         <v>483</v>
       </c>
-      <c r="D24" s="33"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="48" t="s">
+      <c r="B25" s="22" t="s">
         <v>484</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="C25" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="D25" s="28"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="43" t="s">
         <v>486</v>
       </c>
-      <c r="D25" s="33"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="48" t="s">
+      <c r="B26" s="22" t="s">
         <v>487</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="C26" s="21" t="s">
         <v>488</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="D26" s="28"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="43" t="s">
         <v>489</v>
       </c>
-      <c r="D26" s="33"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="48" t="s">
+      <c r="B27" s="22" t="s">
         <v>490</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="C27" s="21" t="s">
         <v>491</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="D27" s="28"/>
+    </row>
+    <row r="28" spans="1:4" ht="30">
+      <c r="A28" s="43" t="s">
         <v>492</v>
       </c>
-      <c r="D27" s="33"/>
-    </row>
-    <row r="28" spans="1:4" ht="30">
-      <c r="A28" s="48" t="s">
+      <c r="B28" s="22" t="s">
         <v>493</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="C28" s="21" t="s">
         <v>494</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="D28" s="28"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="43" t="s">
         <v>495</v>
       </c>
-      <c r="D28" s="33"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="48" t="s">
+      <c r="B29" s="22" t="s">
         <v>496</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="C29" s="21" t="s">
         <v>497</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="D29" s="28"/>
+    </row>
+    <row r="30" spans="1:4" ht="30.75">
+      <c r="A30" s="43" t="s">
         <v>498</v>
       </c>
-      <c r="D29" s="33"/>
-    </row>
-    <row r="30" spans="1:4" ht="30.75">
-      <c r="A30" s="48" t="s">
+      <c r="B30" s="22" t="s">
         <v>499</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="C30" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="D30" s="28"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="43" t="s">
         <v>501</v>
       </c>
-      <c r="D30" s="33"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="48" t="s">
+      <c r="B31" s="22" t="s">
         <v>502</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="C31" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="D31" s="28"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="43" t="s">
         <v>504</v>
       </c>
-      <c r="D31" s="33"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="48" t="s">
+      <c r="B32" s="22" t="s">
         <v>505</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="C32" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="D32" s="28"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="43" t="s">
         <v>506</v>
       </c>
-      <c r="C32" s="26" t="s">
-        <v>425</v>
-      </c>
-      <c r="D32" s="33"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="48" t="s">
+      <c r="B33" s="22" t="s">
         <v>507</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="C33" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="D33" s="28"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="44" t="s">
         <v>509</v>
       </c>
-      <c r="D33" s="33"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="49" t="s">
+      <c r="B34" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="D34" s="28"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="B35" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="C35" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="D35" s="28"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>512</v>
+      </c>
+      <c r="D36" s="28"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="43" t="s">
+        <v>513</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>514</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>515</v>
+      </c>
+      <c r="D37" s="28"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="43" t="s">
+        <v>516</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>517</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="D38" s="28"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="43" t="s">
+        <v>519</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="D39" s="28"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>523</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>524</v>
+      </c>
+      <c r="D40" s="28"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="43" t="s">
+        <v>525</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="D41" s="28"/>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A42" s="45" t="s">
+        <v>528</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>529</v>
+      </c>
+      <c r="C42" s="47" t="s">
+        <v>530</v>
+      </c>
+      <c r="D42" s="31"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="C43" s="25"/>
+      <c r="D43" s="26"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="43" t="s">
+        <v>356</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>531</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="28"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="43" t="s">
+        <v>357</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="28"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>533</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="28"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>534</v>
+      </c>
+      <c r="C47" s="19"/>
+      <c r="D47" s="28"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="28"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>536</v>
+      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="28"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>537</v>
+      </c>
+      <c r="C50" s="19"/>
+      <c r="D50" s="28"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="43" t="s">
+        <v>538</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="28"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="43" t="s">
+        <v>540</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="C52" s="19"/>
+      <c r="D52" s="28"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>542</v>
+      </c>
+      <c r="C53" s="19"/>
+      <c r="D53" s="28"/>
+    </row>
+    <row r="54" spans="1:4" s="33" customFormat="1">
+      <c r="A54" s="43" t="s">
+        <v>370</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="C54" s="40"/>
+      <c r="D54" s="48"/>
+    </row>
+    <row r="55" spans="1:4" s="33" customFormat="1">
+      <c r="A55" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="C55" s="40"/>
+      <c r="D55" s="48"/>
+    </row>
+    <row r="56" spans="1:4" s="33" customFormat="1" ht="30">
+      <c r="A56" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="C56" s="40"/>
+      <c r="D56" s="48"/>
+    </row>
+    <row r="57" spans="1:4" s="33" customFormat="1" ht="30">
+      <c r="A57" s="43" t="s">
+        <v>365</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="C57" s="40"/>
+      <c r="D57" s="48"/>
+    </row>
+    <row r="58" spans="1:4" s="33" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A58" s="45" t="s">
+        <v>367</v>
+      </c>
+      <c r="B58" s="46" t="s">
+        <v>368</v>
+      </c>
+      <c r="C58" s="49"/>
+      <c r="D58" s="50"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="B59" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="C59" s="42" t="s">
         <v>418</v>
       </c>
-      <c r="C34" s="25" t="s">
-        <v>419</v>
-      </c>
-      <c r="D34" s="33"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>511</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>486</v>
-      </c>
-      <c r="D35" s="33"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>513</v>
-      </c>
-      <c r="D36" s="33"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="48" t="s">
-        <v>514</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>515</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>516</v>
-      </c>
-      <c r="D37" s="33"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="48" t="s">
-        <v>517</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>518</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>519</v>
-      </c>
-      <c r="D38" s="33"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="48" t="s">
-        <v>520</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>521</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>522</v>
-      </c>
-      <c r="D39" s="33"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="48" t="s">
-        <v>523</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>524</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>525</v>
-      </c>
-      <c r="D40" s="33"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="48" t="s">
-        <v>526</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>527</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>528</v>
-      </c>
-      <c r="D41" s="33"/>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A42" s="50" t="s">
-        <v>529</v>
-      </c>
-      <c r="B42" s="51" t="s">
-        <v>530</v>
-      </c>
-      <c r="C42" s="52" t="s">
-        <v>531</v>
-      </c>
-      <c r="D42" s="36"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="46" t="s">
-        <v>355</v>
-      </c>
-      <c r="B43" s="47" t="s">
+      <c r="D59" s="26"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="43" t="s">
+        <v>351</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="D60" s="28"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="43" t="s">
+        <v>545</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>546</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>547</v>
+      </c>
+      <c r="D61" s="28"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="43" t="s">
+        <v>548</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>659</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>549</v>
+      </c>
+      <c r="D62" s="28"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="43" t="s">
+        <v>550</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>551</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>552</v>
+      </c>
+      <c r="D63" s="28"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="43" t="s">
+        <v>553</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>554</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="D64" s="28"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="43" t="s">
+        <v>556</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>557</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>558</v>
+      </c>
+      <c r="D65" s="28"/>
+    </row>
+    <row r="66" spans="1:4" ht="30">
+      <c r="A66" s="43" t="s">
+        <v>559</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>560</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>561</v>
+      </c>
+      <c r="D66" s="28"/>
+    </row>
+    <row r="67" spans="1:4" ht="30">
+      <c r="A67" s="43" t="s">
+        <v>562</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="D67" s="28"/>
+    </row>
+    <row r="68" spans="1:4" ht="30">
+      <c r="A68" s="43" t="s">
+        <v>565</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="D68" s="28"/>
+    </row>
+    <row r="69" spans="1:4" ht="30">
+      <c r="A69" s="43" t="s">
+        <v>568</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>569</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>570</v>
+      </c>
+      <c r="D69" s="28"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="43" t="s">
+        <v>571</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>572</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="D70" s="28"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="43" t="s">
+        <v>574</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>575</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="D71" s="28"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="43" t="s">
+        <v>577</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>578</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>579</v>
+      </c>
+      <c r="D72" s="28"/>
+    </row>
+    <row r="73" spans="1:4" ht="30">
+      <c r="A73" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>580</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>581</v>
+      </c>
+      <c r="D73" s="28" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="30">
+      <c r="A74" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>582</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>583</v>
+      </c>
+      <c r="D74" s="28"/>
+    </row>
+    <row r="75" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A75" s="45" t="s">
+        <v>584</v>
+      </c>
+      <c r="B75" s="46" t="s">
+        <v>585</v>
+      </c>
+      <c r="C75" s="47" t="s">
+        <v>586</v>
+      </c>
+      <c r="D75" s="31"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="B76" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="C76" s="42" t="s">
         <v>418</v>
       </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="31"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="48" t="s">
-        <v>356</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>532</v>
-      </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="33"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="48" t="s">
-        <v>357</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>533</v>
-      </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="33"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="48" t="s">
-        <v>358</v>
-      </c>
-      <c r="B46" s="27" t="s">
-        <v>534</v>
-      </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="33"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="48" t="s">
-        <v>359</v>
-      </c>
-      <c r="B47" s="27" t="s">
-        <v>535</v>
-      </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="33"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="48" t="s">
-        <v>360</v>
-      </c>
-      <c r="B48" s="27" t="s">
-        <v>536</v>
-      </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="33"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="48" t="s">
-        <v>361</v>
-      </c>
-      <c r="B49" s="27" t="s">
-        <v>537</v>
-      </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="33"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="48" t="s">
-        <v>362</v>
-      </c>
-      <c r="B50" s="27" t="s">
-        <v>538</v>
-      </c>
-      <c r="C50" s="24"/>
-      <c r="D50" s="33"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="48" t="s">
-        <v>539</v>
-      </c>
-      <c r="B51" s="27" t="s">
-        <v>540</v>
-      </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="33"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="48" t="s">
-        <v>541</v>
-      </c>
-      <c r="B52" s="27" t="s">
-        <v>542</v>
-      </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="33"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="48" t="s">
-        <v>369</v>
-      </c>
-      <c r="B53" s="27" t="s">
-        <v>543</v>
-      </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="33"/>
-    </row>
-    <row r="54" spans="1:4" s="38" customFormat="1">
-      <c r="A54" s="48" t="s">
-        <v>370</v>
-      </c>
-      <c r="B54" s="27" t="s">
-        <v>371</v>
-      </c>
-      <c r="C54" s="45"/>
-      <c r="D54" s="53"/>
-    </row>
-    <row r="55" spans="1:4" s="38" customFormat="1">
-      <c r="A55" s="48" t="s">
-        <v>372</v>
-      </c>
-      <c r="B55" s="27" t="s">
-        <v>373</v>
-      </c>
-      <c r="C55" s="45"/>
-      <c r="D55" s="53"/>
-    </row>
-    <row r="56" spans="1:4" s="38" customFormat="1" ht="30">
-      <c r="A56" s="48" t="s">
-        <v>363</v>
-      </c>
-      <c r="B56" s="27" t="s">
-        <v>364</v>
-      </c>
-      <c r="C56" s="45"/>
-      <c r="D56" s="53"/>
-    </row>
-    <row r="57" spans="1:4" s="38" customFormat="1" ht="30">
-      <c r="A57" s="48" t="s">
-        <v>365</v>
-      </c>
-      <c r="B57" s="27" t="s">
-        <v>366</v>
-      </c>
-      <c r="C57" s="45"/>
-      <c r="D57" s="53"/>
-    </row>
-    <row r="58" spans="1:4" s="38" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A58" s="50" t="s">
-        <v>367</v>
-      </c>
-      <c r="B58" s="51" t="s">
-        <v>368</v>
-      </c>
-      <c r="C58" s="54"/>
-      <c r="D58" s="55"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="46" t="s">
-        <v>355</v>
-      </c>
-      <c r="B59" s="47" t="s">
-        <v>418</v>
-      </c>
-      <c r="C59" s="47" t="s">
-        <v>419</v>
-      </c>
-      <c r="D59" s="31"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="48" t="s">
-        <v>351</v>
-      </c>
-      <c r="B60" s="27" t="s">
-        <v>544</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>545</v>
-      </c>
-      <c r="D60" s="33"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="48" t="s">
-        <v>546</v>
-      </c>
-      <c r="B61" s="27" t="s">
-        <v>547</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>548</v>
-      </c>
-      <c r="D61" s="33"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="48" t="s">
-        <v>549</v>
-      </c>
-      <c r="B62" s="27" t="s">
-        <v>660</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>550</v>
-      </c>
-      <c r="D62" s="33"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="48" t="s">
-        <v>551</v>
-      </c>
-      <c r="B63" s="27" t="s">
-        <v>552</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>553</v>
-      </c>
-      <c r="D63" s="33"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="48" t="s">
-        <v>554</v>
-      </c>
-      <c r="B64" s="27" t="s">
-        <v>555</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>556</v>
-      </c>
-      <c r="D64" s="33"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="48" t="s">
-        <v>557</v>
-      </c>
-      <c r="B65" s="27" t="s">
-        <v>558</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>559</v>
-      </c>
-      <c r="D65" s="33"/>
-    </row>
-    <row r="66" spans="1:4" ht="30">
-      <c r="A66" s="48" t="s">
-        <v>560</v>
-      </c>
-      <c r="B66" s="27" t="s">
-        <v>561</v>
-      </c>
-      <c r="C66" s="26" t="s">
-        <v>562</v>
-      </c>
-      <c r="D66" s="33"/>
-    </row>
-    <row r="67" spans="1:4" ht="30">
-      <c r="A67" s="48" t="s">
-        <v>563</v>
-      </c>
-      <c r="B67" s="27" t="s">
-        <v>564</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>565</v>
-      </c>
-      <c r="D67" s="33"/>
-    </row>
-    <row r="68" spans="1:4" ht="30">
-      <c r="A68" s="48" t="s">
-        <v>566</v>
-      </c>
-      <c r="B68" s="27" t="s">
-        <v>567</v>
-      </c>
-      <c r="C68" s="26" t="s">
-        <v>568</v>
-      </c>
-      <c r="D68" s="33"/>
-    </row>
-    <row r="69" spans="1:4" ht="30">
-      <c r="A69" s="48" t="s">
-        <v>569</v>
-      </c>
-      <c r="B69" s="27" t="s">
-        <v>570</v>
-      </c>
-      <c r="C69" s="26" t="s">
-        <v>571</v>
-      </c>
-      <c r="D69" s="33"/>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="48" t="s">
-        <v>572</v>
-      </c>
-      <c r="B70" s="27" t="s">
-        <v>573</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>574</v>
-      </c>
-      <c r="D70" s="33"/>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="48" t="s">
-        <v>575</v>
-      </c>
-      <c r="B71" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="C71" s="26" t="s">
-        <v>577</v>
-      </c>
-      <c r="D71" s="33"/>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="48" t="s">
-        <v>578</v>
-      </c>
-      <c r="B72" s="27" t="s">
-        <v>579</v>
-      </c>
-      <c r="C72" s="26" t="s">
-        <v>580</v>
-      </c>
-      <c r="D72" s="33"/>
-    </row>
-    <row r="73" spans="1:4" ht="30">
-      <c r="A73" s="48" t="s">
-        <v>352</v>
-      </c>
-      <c r="B73" s="27" t="s">
-        <v>581</v>
-      </c>
-      <c r="C73" s="26" t="s">
-        <v>582</v>
-      </c>
-      <c r="D73" s="33" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="30">
-      <c r="A74" s="48" t="s">
-        <v>350</v>
-      </c>
-      <c r="B74" s="27" t="s">
-        <v>583</v>
-      </c>
-      <c r="C74" s="26" t="s">
-        <v>584</v>
-      </c>
-      <c r="D74" s="33"/>
-    </row>
-    <row r="75" spans="1:4" ht="30.75" thickBot="1">
-      <c r="A75" s="50" t="s">
-        <v>585</v>
-      </c>
-      <c r="B75" s="51" t="s">
-        <v>586</v>
-      </c>
-      <c r="C75" s="52" t="s">
-        <v>587</v>
-      </c>
-      <c r="D75" s="36"/>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="46" t="s">
+      <c r="D76" s="26"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="43" t="s">
+        <v>340</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>705</v>
+      </c>
+      <c r="C77" s="21" t="s">
         <v>588</v>
       </c>
-      <c r="B76" s="47" t="s">
-        <v>418</v>
-      </c>
-      <c r="C76" s="47" t="s">
-        <v>419</v>
-      </c>
-      <c r="D76" s="31"/>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="48" t="s">
-        <v>340</v>
-      </c>
-      <c r="B77" s="27" t="s">
+      <c r="D77" s="28"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>706</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>589</v>
+      </c>
+      <c r="D78" s="28"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="43" t="s">
+        <v>590</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>708</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>591</v>
+      </c>
+      <c r="D79" s="28"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="43" t="s">
+        <v>592</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>593</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>594</v>
+      </c>
+      <c r="D80" s="28"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="43" t="s">
+        <v>595</v>
+      </c>
+      <c r="B81" s="22" t="s">
         <v>707</v>
       </c>
-      <c r="C77" s="26" t="s">
-        <v>589</v>
-      </c>
-      <c r="D77" s="33"/>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="48" t="s">
-        <v>339</v>
-      </c>
-      <c r="B78" s="27" t="s">
-        <v>708</v>
-      </c>
-      <c r="C78" s="26" t="s">
-        <v>590</v>
-      </c>
-      <c r="D78" s="33"/>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="48" t="s">
-        <v>591</v>
-      </c>
-      <c r="B79" s="27" t="s">
+      <c r="C81" s="21" t="s">
+        <v>596</v>
+      </c>
+      <c r="D81" s="28"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="43" t="s">
+        <v>597</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>598</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="D82" s="28"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="43" t="s">
+        <v>338</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>709</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="D83" s="28"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="43" t="s">
+        <v>601</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="D84" s="28"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="43" t="s">
+        <v>604</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>605</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="D85" s="28"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="43" t="s">
+        <v>337</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>607</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>608</v>
+      </c>
+      <c r="D86" s="28"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="43" t="s">
+        <v>336</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>609</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="D87" s="28"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="43" t="s">
+        <v>342</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>711</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>611</v>
+      </c>
+      <c r="D88" s="28"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="43" t="s">
+        <v>612</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>613</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>614</v>
+      </c>
+      <c r="D89" s="28"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="43" t="s">
+        <v>615</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>613</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>616</v>
+      </c>
+      <c r="D90" s="28"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="43" t="s">
+        <v>343</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>617</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>618</v>
+      </c>
+      <c r="D91" s="28"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="43" t="s">
+        <v>619</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>620</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>621</v>
+      </c>
+      <c r="D92" s="28"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="43" t="s">
+        <v>622</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>623</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="D93" s="28"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="43" t="s">
+        <v>625</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>626</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>627</v>
+      </c>
+      <c r="D94" s="28"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="43" t="s">
+        <v>344</v>
+      </c>
+      <c r="B95" s="22" t="s">
+        <v>628</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>629</v>
+      </c>
+      <c r="D95" s="28"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="B96" s="22" t="s">
+        <v>630</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>631</v>
+      </c>
+      <c r="D96" s="28"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="43" t="s">
+        <v>345</v>
+      </c>
+      <c r="B97" s="22" t="s">
+        <v>632</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>633</v>
+      </c>
+      <c r="D97" s="28"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="43" t="s">
+        <v>341</v>
+      </c>
+      <c r="B98" s="22" t="s">
         <v>710</v>
       </c>
-      <c r="C79" s="26" t="s">
-        <v>592</v>
-      </c>
-      <c r="D79" s="33"/>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="48" t="s">
-        <v>593</v>
-      </c>
-      <c r="B80" s="27" t="s">
-        <v>594</v>
-      </c>
-      <c r="C80" s="26" t="s">
-        <v>595</v>
-      </c>
-      <c r="D80" s="33"/>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="48" t="s">
-        <v>596</v>
-      </c>
-      <c r="B81" s="27" t="s">
-        <v>709</v>
-      </c>
-      <c r="C81" s="26" t="s">
-        <v>597</v>
-      </c>
-      <c r="D81" s="33"/>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="48" t="s">
-        <v>598</v>
-      </c>
-      <c r="B82" s="27" t="s">
-        <v>599</v>
-      </c>
-      <c r="C82" s="26" t="s">
-        <v>600</v>
-      </c>
-      <c r="D82" s="33"/>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="48" t="s">
-        <v>338</v>
-      </c>
-      <c r="B83" s="27" t="s">
-        <v>711</v>
-      </c>
-      <c r="C83" s="26" t="s">
-        <v>601</v>
-      </c>
-      <c r="D83" s="33"/>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="48" t="s">
-        <v>602</v>
-      </c>
-      <c r="B84" s="27" t="s">
-        <v>603</v>
-      </c>
-      <c r="C84" s="26" t="s">
-        <v>604</v>
-      </c>
-      <c r="D84" s="33"/>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="48" t="s">
-        <v>605</v>
-      </c>
-      <c r="B85" s="27" t="s">
-        <v>606</v>
-      </c>
-      <c r="C85" s="26" t="s">
-        <v>607</v>
-      </c>
-      <c r="D85" s="33"/>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="48" t="s">
-        <v>337</v>
-      </c>
-      <c r="B86" s="27" t="s">
-        <v>608</v>
-      </c>
-      <c r="C86" s="26" t="s">
-        <v>609</v>
-      </c>
-      <c r="D86" s="33"/>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="48" t="s">
-        <v>336</v>
-      </c>
-      <c r="B87" s="27" t="s">
-        <v>610</v>
-      </c>
-      <c r="C87" s="26" t="s">
-        <v>611</v>
-      </c>
-      <c r="D87" s="33"/>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="48" t="s">
-        <v>342</v>
-      </c>
-      <c r="B88" s="27" t="s">
+      <c r="C98" s="21" t="s">
+        <v>634</v>
+      </c>
+      <c r="D98" s="28"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="B99" s="22" t="s">
+        <v>636</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>637</v>
+      </c>
+      <c r="D99" s="28"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="43" t="s">
+        <v>638</v>
+      </c>
+      <c r="B100" s="22" t="s">
+        <v>639</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>640</v>
+      </c>
+      <c r="D100" s="28"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="43" t="s">
+        <v>641</v>
+      </c>
+      <c r="B101" s="22" t="s">
+        <v>642</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>643</v>
+      </c>
+      <c r="D101" s="28"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="43" t="s">
+        <v>644</v>
+      </c>
+      <c r="B102" s="22" t="s">
+        <v>645</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>646</v>
+      </c>
+      <c r="D102" s="28"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="43" t="s">
+        <v>647</v>
+      </c>
+      <c r="B103" s="22" t="s">
+        <v>648</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>649</v>
+      </c>
+      <c r="D103" s="28"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="43" t="s">
+        <v>650</v>
+      </c>
+      <c r="B104" s="22" t="s">
+        <v>651</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>652</v>
+      </c>
+      <c r="D104" s="28"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="43" t="s">
+        <v>653</v>
+      </c>
+      <c r="B105" s="22" t="s">
+        <v>654</v>
+      </c>
+      <c r="C105" s="21" t="s">
+        <v>655</v>
+      </c>
+      <c r="D105" s="28"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="43" t="s">
+        <v>656</v>
+      </c>
+      <c r="B106" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>658</v>
+      </c>
+      <c r="D106" s="28"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="51" t="s">
+        <v>334</v>
+      </c>
+      <c r="B107" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="C107" s="19"/>
+      <c r="D107" s="28"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="51" t="s">
+        <v>346</v>
+      </c>
+      <c r="B108" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="C108" s="19"/>
+      <c r="D108" s="28"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="52" t="s">
+        <v>712</v>
+      </c>
+      <c r="B109" s="40" t="s">
+        <v>349</v>
+      </c>
+      <c r="C109" s="40"/>
+      <c r="D109" s="28"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="53" t="s">
         <v>713</v>
       </c>
-      <c r="C88" s="26" t="s">
-        <v>612</v>
-      </c>
-      <c r="D88" s="33"/>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="48" t="s">
-        <v>613</v>
-      </c>
-      <c r="B89" s="27" t="s">
-        <v>614</v>
-      </c>
-      <c r="C89" s="26" t="s">
-        <v>615</v>
-      </c>
-      <c r="D89" s="33"/>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="48" t="s">
-        <v>616</v>
-      </c>
-      <c r="B90" s="27" t="s">
-        <v>614</v>
-      </c>
-      <c r="C90" s="26" t="s">
-        <v>617</v>
-      </c>
-      <c r="D90" s="33"/>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="48" t="s">
-        <v>343</v>
-      </c>
-      <c r="B91" s="27" t="s">
-        <v>618</v>
-      </c>
-      <c r="C91" s="26" t="s">
-        <v>619</v>
-      </c>
-      <c r="D91" s="33"/>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="48" t="s">
-        <v>620</v>
-      </c>
-      <c r="B92" s="27" t="s">
-        <v>621</v>
-      </c>
-      <c r="C92" s="26" t="s">
-        <v>622</v>
-      </c>
-      <c r="D92" s="33"/>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="48" t="s">
-        <v>623</v>
-      </c>
-      <c r="B93" s="27" t="s">
-        <v>624</v>
-      </c>
-      <c r="C93" s="26" t="s">
-        <v>625</v>
-      </c>
-      <c r="D93" s="33"/>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="48" t="s">
-        <v>626</v>
-      </c>
-      <c r="B94" s="27" t="s">
-        <v>627</v>
-      </c>
-      <c r="C94" s="26" t="s">
-        <v>628</v>
-      </c>
-      <c r="D94" s="33"/>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="48" t="s">
-        <v>344</v>
-      </c>
-      <c r="B95" s="27" t="s">
-        <v>629</v>
-      </c>
-      <c r="C95" s="26" t="s">
-        <v>630</v>
-      </c>
-      <c r="D95" s="33"/>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="B96" s="27" t="s">
-        <v>631</v>
-      </c>
-      <c r="C96" s="26" t="s">
-        <v>632</v>
-      </c>
-      <c r="D96" s="33"/>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="48" t="s">
-        <v>345</v>
-      </c>
-      <c r="B97" s="27" t="s">
-        <v>633</v>
-      </c>
-      <c r="C97" s="26" t="s">
-        <v>634</v>
-      </c>
-      <c r="D97" s="33"/>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="48" t="s">
-        <v>341</v>
-      </c>
-      <c r="B98" s="27" t="s">
-        <v>712</v>
-      </c>
-      <c r="C98" s="26" t="s">
-        <v>635</v>
-      </c>
-      <c r="D98" s="33"/>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="48" t="s">
-        <v>636</v>
-      </c>
-      <c r="B99" s="27" t="s">
-        <v>637</v>
-      </c>
-      <c r="C99" s="26" t="s">
-        <v>638</v>
-      </c>
-      <c r="D99" s="33"/>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="48" t="s">
-        <v>639</v>
-      </c>
-      <c r="B100" s="27" t="s">
-        <v>640</v>
-      </c>
-      <c r="C100" s="26" t="s">
-        <v>641</v>
-      </c>
-      <c r="D100" s="33"/>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="48" t="s">
-        <v>642</v>
-      </c>
-      <c r="B101" s="27" t="s">
-        <v>643</v>
-      </c>
-      <c r="C101" s="26" t="s">
-        <v>644</v>
-      </c>
-      <c r="D101" s="33"/>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="48" t="s">
-        <v>645</v>
-      </c>
-      <c r="B102" s="27" t="s">
-        <v>646</v>
-      </c>
-      <c r="C102" s="26" t="s">
-        <v>647</v>
-      </c>
-      <c r="D102" s="33"/>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="48" t="s">
-        <v>648</v>
-      </c>
-      <c r="B103" s="27" t="s">
-        <v>649</v>
-      </c>
-      <c r="C103" s="26" t="s">
-        <v>650</v>
-      </c>
-      <c r="D103" s="33"/>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="48" t="s">
-        <v>651</v>
-      </c>
-      <c r="B104" s="27" t="s">
-        <v>652</v>
-      </c>
-      <c r="C104" s="26" t="s">
-        <v>653</v>
-      </c>
-      <c r="D104" s="33"/>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="48" t="s">
-        <v>654</v>
-      </c>
-      <c r="B105" s="27" t="s">
-        <v>655</v>
-      </c>
-      <c r="C105" s="26" t="s">
-        <v>656</v>
-      </c>
-      <c r="D105" s="33"/>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="48" t="s">
-        <v>657</v>
-      </c>
-      <c r="B106" s="27" t="s">
-        <v>658</v>
-      </c>
-      <c r="C106" s="26" t="s">
-        <v>659</v>
-      </c>
-      <c r="D106" s="33"/>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="56" t="s">
-        <v>334</v>
-      </c>
-      <c r="B107" s="28" t="s">
-        <v>335</v>
-      </c>
-      <c r="C107" s="24"/>
-      <c r="D107" s="33"/>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="56" t="s">
-        <v>346</v>
-      </c>
-      <c r="B108" s="28" t="s">
-        <v>347</v>
-      </c>
-      <c r="C108" s="24"/>
-      <c r="D108" s="33"/>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="57" t="s">
+      <c r="B110" s="40" t="s">
+        <v>348</v>
+      </c>
+      <c r="C110" s="40"/>
+      <c r="D110" s="28"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="B111" s="40" t="s">
+        <v>374</v>
+      </c>
+      <c r="C111" s="19" t="s">
         <v>714</v>
       </c>
-      <c r="B109" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="C109" s="45"/>
-      <c r="D109" s="33"/>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="58" t="s">
-        <v>715</v>
-      </c>
-      <c r="B110" s="45" t="s">
-        <v>348</v>
-      </c>
-      <c r="C110" s="45"/>
-      <c r="D110" s="33"/>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="B111" s="45" t="s">
-        <v>374</v>
-      </c>
-      <c r="C111" s="24" t="s">
-        <v>716</v>
-      </c>
-      <c r="D111" s="53" t="s">
+      <c r="D111" s="48" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="32" t="s">
+      <c r="A112" s="27" t="s">
         <v>397</v>
       </c>
-      <c r="B112" s="45" t="s">
+      <c r="B112" s="40" t="s">
         <v>398</v>
       </c>
-      <c r="C112" s="24"/>
-      <c r="D112" s="33"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="28"/>
     </row>
     <row r="113" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A113" s="34" t="s">
+      <c r="A113" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="B113" s="54" t="s">
+      <c r="B113" s="49" t="s">
         <v>400</v>
       </c>
-      <c r="C113" s="35"/>
-      <c r="D113" s="36"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="31"/>
+    </row>
+    <row r="114" spans="1:4" ht="30">
+      <c r="A114" s="84" t="s">
+        <v>866</v>
+      </c>
+      <c r="B114" s="85" t="s">
+        <v>867</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="30">
+      <c r="A115" s="84" t="s">
+        <v>869</v>
+      </c>
+      <c r="B115" s="85" t="s">
+        <v>870</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>871</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8515,7 +9974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:B38"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -8523,132 +9982,132 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="15" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B7" s="16" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B7" s="21" t="s">
+    <row r="8" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B8" s="16" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B8" s="21" t="s">
+    <row r="9" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B9" s="17"/>
+    </row>
+    <row r="10" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B10" s="16" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B9" s="22"/>
-    </row>
-    <row r="10" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B10" s="21" t="s">
+    <row r="11" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B11" s="16" t="s">
         <v>666</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B11" s="21" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="14" spans="2:2" ht="15.75" thickBot="1"/>
     <row r="15" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="16" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B16" s="16" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B16" s="21" t="s">
+    <row r="17" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B17" s="16" t="s">
         <v>670</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B17" s="21" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15.75" thickBot="1"/>
     <row r="21" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="15" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B22" s="16" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B22" s="21" t="s">
+    <row r="23" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B23" s="16" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B23" s="21" t="s">
-        <v>665</v>
-      </c>
-    </row>
     <row r="24" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B24" s="22"/>
+      <c r="B24" s="17"/>
     </row>
     <row r="25" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="16" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B26" s="16" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B26" s="21" t="s">
-        <v>674</v>
-      </c>
-    </row>
     <row r="27" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B27" s="21" t="s">
-        <v>667</v>
+      <c r="B27" s="16" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="15.75" thickBot="1"/>
     <row r="31" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="16" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B32" s="18" t="s">
         <v>676</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B32" s="23" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="12" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -8663,7 +10122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -8677,17 +10136,17 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8695,70 +10154,70 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="12" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="12" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="12" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" s="12" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B14" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="165">
       <c r="B19" s="1" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
   </sheetData>
@@ -8770,4 +10229,853 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:C47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="73.5703125" style="88" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" s="88" t="s">
+        <v>881</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="88" t="s">
+        <v>884</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A4" s="88" t="s">
+        <v>882</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="88" t="s">
+        <v>904</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>905</v>
+      </c>
+      <c r="C5" s="59"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="88" t="s">
+        <v>892</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>893</v>
+      </c>
+      <c r="C6" s="61"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="88" t="s">
+        <v>894</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>895</v>
+      </c>
+      <c r="C7" s="61"/>
+    </row>
+    <row r="8" spans="1:3" ht="30">
+      <c r="A8" s="88" t="s">
+        <v>896</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>897</v>
+      </c>
+      <c r="C8" s="61"/>
+    </row>
+    <row r="9" spans="1:3" ht="30">
+      <c r="A9" s="88" t="s">
+        <v>898</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>899</v>
+      </c>
+      <c r="C9" s="61"/>
+    </row>
+    <row r="10" spans="1:3" ht="30">
+      <c r="A10" s="88" t="s">
+        <v>900</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>901</v>
+      </c>
+      <c r="C10" s="61"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="88" t="s">
+        <v>902</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>903</v>
+      </c>
+      <c r="C11" s="61"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B12" s="72"/>
+      <c r="C12" s="64"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="32"/>
+      <c r="C13" s="24"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="88" t="s">
+        <v>887</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30">
+      <c r="A15" s="88" t="s">
+        <v>890</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="75">
+      <c r="A16" s="88" t="s">
+        <v>891</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="88" t="s">
+        <v>906</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="88" t="s">
+        <v>908</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="88" t="s">
+        <v>910</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30">
+      <c r="A20" s="88" t="s">
+        <v>911</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="88" t="s">
+        <v>913</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30">
+      <c r="A23" s="89" t="s">
+        <v>915</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="88" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="88" t="s">
+        <v>920</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="120">
+      <c r="A26" s="88" t="s">
+        <v>922</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="89" t="s">
+        <v>924</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="75">
+      <c r="A28" s="89" t="s">
+        <v>926</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="88" t="s">
+        <v>930</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="88" t="s">
+        <v>929</v>
+      </c>
+      <c r="B30" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="88" t="s">
+        <v>932</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="88" t="s">
+        <v>934</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="88" t="s">
+        <v>936</v>
+      </c>
+      <c r="B33" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="88" t="s">
+        <v>938</v>
+      </c>
+      <c r="B34" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30">
+      <c r="A35" s="89" t="s">
+        <v>940</v>
+      </c>
+      <c r="B35" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="88" t="s">
+        <v>942</v>
+      </c>
+      <c r="B36" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="88" t="s">
+        <v>944</v>
+      </c>
+      <c r="B37" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="88" t="s">
+        <v>946</v>
+      </c>
+      <c r="B38" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30">
+      <c r="A39" s="89" t="s">
+        <v>948</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30">
+      <c r="A40" s="88" t="s">
+        <v>950</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="88" t="s">
+        <v>952</v>
+      </c>
+      <c r="B41" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30">
+      <c r="A42" s="89" t="s">
+        <v>954</v>
+      </c>
+      <c r="B42" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="75">
+      <c r="A43" s="89" t="s">
+        <v>956</v>
+      </c>
+      <c r="B43" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="75">
+      <c r="A44" s="89" t="s">
+        <v>958</v>
+      </c>
+      <c r="B44" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="75">
+      <c r="A45" s="89" t="s">
+        <v>960</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="60">
+      <c r="A46" s="89" t="s">
+        <v>962</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30">
+      <c r="A47" s="88" t="s">
+        <v>964</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="98"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D1" s="99"/>
+      <c r="E1" s="100"/>
+      <c r="G1" s="76" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="101" t="s">
+        <v>990</v>
+      </c>
+      <c r="B2" s="97" t="s">
+        <v>992</v>
+      </c>
+      <c r="C2" s="97" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D2" s="97" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E2" s="102" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>985</v>
+      </c>
+      <c r="H2" s="76" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="101" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B3" s="97" t="s">
+        <v>973</v>
+      </c>
+      <c r="C3" s="97" t="s">
+        <v>985</v>
+      </c>
+      <c r="D3" s="97" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E3" s="102" t="s">
+        <v>983</v>
+      </c>
+      <c r="G3" s="76" t="s">
+        <v>986</v>
+      </c>
+      <c r="H3" s="76" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="101" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B4" s="97" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C4" s="97" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D4" s="97" t="s">
+        <v>993</v>
+      </c>
+      <c r="E4" s="102" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G4" s="76" t="s">
+        <v>987</v>
+      </c>
+      <c r="H4" s="76" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="101" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B5" s="97" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C5" s="97" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D5" s="97" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E5" s="102" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G5" s="76" t="s">
+        <v>988</v>
+      </c>
+      <c r="H5" s="76" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="101" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B6" s="97" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C6" s="97" t="s">
+        <v>978</v>
+      </c>
+      <c r="D6" s="97" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E6" s="102" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G6" s="76" t="s">
+        <v>989</v>
+      </c>
+      <c r="H6" s="76" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="101" t="s">
+        <v>988</v>
+      </c>
+      <c r="B7" s="97" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C7" s="97" t="s">
+        <v>998</v>
+      </c>
+      <c r="D7" s="97" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E7" s="102" t="s">
+        <v>984</v>
+      </c>
+      <c r="G7" s="76" t="s">
+        <v>983</v>
+      </c>
+      <c r="H7" s="76" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="101" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B8" s="97" t="s">
+        <v>987</v>
+      </c>
+      <c r="C8" s="97" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D8" s="97" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E8" s="102" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G8" s="76" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="101" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B9" s="97" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C9" s="97" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D9" s="97" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E9" s="102" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G9" s="76" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="101" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B10" s="97" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C10" s="97" t="s">
+        <v>986</v>
+      </c>
+      <c r="D10" s="97" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E10" s="102" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G10" s="76" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="101" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B11" s="97" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C11" s="97" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D11" s="97" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E11" s="102" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G11" s="76" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="101" t="s">
+        <v>982</v>
+      </c>
+      <c r="B12" s="97" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C12" s="97" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D12" s="97" t="s">
+        <v>972</v>
+      </c>
+      <c r="E12" s="102" t="s">
+        <v>968</v>
+      </c>
+      <c r="G12" s="76" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="101" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B13" s="97" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C13" s="97" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D13" s="97" t="s">
+        <v>994</v>
+      </c>
+      <c r="E13" s="102" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G13" s="76" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="101" t="s">
+        <v>989</v>
+      </c>
+      <c r="B14" s="97" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C14" s="97" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D14" s="97" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E14" s="102" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G14" s="76" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="101" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B15" s="97" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C15" s="97" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D15" s="97" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E15" s="102" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G15" s="107" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="101" t="s">
+        <v>718</v>
+      </c>
+      <c r="B16" s="97" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C16" s="97" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D16" s="97" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E16" s="102" t="s">
+        <v>991</v>
+      </c>
+      <c r="G16" s="76" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A17" s="103" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B17" s="104" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C17" s="104" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D17" s="104" t="s">
+        <v>971</v>
+      </c>
+      <c r="E17" s="105" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="75" customHeight="1">
+      <c r="A18" s="106" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B18" s="106"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A18:E18"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" location="abs" tooltip="abs" display="http://docs.python.org/2/library/functions.html - abs"/>
+    <hyperlink ref="B2" r:id="rId2" location="divmod" tooltip="divmod" display="http://docs.python.org/2/library/functions.html - divmod"/>
+    <hyperlink ref="C2" r:id="rId3" location="input" tooltip="input" display="http://docs.python.org/2/library/functions.html - input"/>
+    <hyperlink ref="D2" r:id="rId4" location="open" tooltip="open" display="http://docs.python.org/2/library/functions.html - open"/>
+    <hyperlink ref="E2" r:id="rId5" location="staticmethod" tooltip="staticmethod" display="http://docs.python.org/2/library/functions.html - staticmethod"/>
+    <hyperlink ref="A3" r:id="rId6" location="all" tooltip="all" display="http://docs.python.org/2/library/functions.html - all"/>
+    <hyperlink ref="B3" r:id="rId7" location="enumerate" tooltip="enumerate" display="http://docs.python.org/2/library/functions.html - enumerate"/>
+    <hyperlink ref="C3" r:id="rId8" location="int" tooltip="int" display="http://docs.python.org/2/library/functions.html - int"/>
+    <hyperlink ref="D3" r:id="rId9" location="ord" tooltip="ord" display="http://docs.python.org/2/library/functions.html - ord"/>
+    <hyperlink ref="E3" r:id="rId10" location="str" tooltip="str" display="http://docs.python.org/2/library/functions.html - str"/>
+    <hyperlink ref="A4" r:id="rId11" location="any" tooltip="any" display="http://docs.python.org/2/library/functions.html - any"/>
+    <hyperlink ref="B4" r:id="rId12" location="eval" tooltip="eval" display="http://docs.python.org/2/library/functions.html - eval"/>
+    <hyperlink ref="C4" r:id="rId13" location="isinstance" tooltip="isinstance" display="http://docs.python.org/2/library/functions.html - isinstance"/>
+    <hyperlink ref="D4" r:id="rId14" location="pow" tooltip="pow" display="http://docs.python.org/2/library/functions.html - pow"/>
+    <hyperlink ref="E4" r:id="rId15" location="sum" tooltip="sum" display="http://docs.python.org/2/library/functions.html - sum"/>
+    <hyperlink ref="A5" r:id="rId16" location="basestring" tooltip="basestring" display="http://docs.python.org/2/library/functions.html - basestring"/>
+    <hyperlink ref="B5" r:id="rId17" location="execfile" tooltip="execfile" display="http://docs.python.org/2/library/functions.html - execfile"/>
+    <hyperlink ref="C5" r:id="rId18" location="issubclass" tooltip="issubclass" display="http://docs.python.org/2/library/functions.html - issubclass"/>
+    <hyperlink ref="D5" r:id="rId19" location="print" tooltip="print" display="http://docs.python.org/2/library/functions.html - print"/>
+    <hyperlink ref="E5" r:id="rId20" location="super" tooltip="super" display="http://docs.python.org/2/library/functions.html - super"/>
+    <hyperlink ref="A6" r:id="rId21" location="bin" tooltip="bin" display="http://docs.python.org/2/library/functions.html - bin"/>
+    <hyperlink ref="B6" r:id="rId22" location="file" tooltip="file" display="http://docs.python.org/2/library/functions.html - file"/>
+    <hyperlink ref="C6" r:id="rId23" location="iter" tooltip="iter" display="http://docs.python.org/2/library/functions.html - iter"/>
+    <hyperlink ref="D6" r:id="rId24" location="property" tooltip="property" display="http://docs.python.org/2/library/functions.html - property"/>
+    <hyperlink ref="E6" r:id="rId25" location="tuple" tooltip="tuple" display="http://docs.python.org/2/library/functions.html - tuple"/>
+    <hyperlink ref="A7" r:id="rId26" location="bool" tooltip="bool" display="http://docs.python.org/2/library/functions.html - bool"/>
+    <hyperlink ref="B7" r:id="rId27" location="filter" tooltip="filter" display="http://docs.python.org/2/library/functions.html - filter"/>
+    <hyperlink ref="C7" r:id="rId28" location="len" tooltip="len" display="http://docs.python.org/2/library/functions.html - len"/>
+    <hyperlink ref="D7" r:id="rId29" location="range" tooltip="range" display="http://docs.python.org/2/library/functions.html - range"/>
+    <hyperlink ref="E7" r:id="rId30" location="type" tooltip="type" display="http://docs.python.org/2/library/functions.html - type"/>
+    <hyperlink ref="A8" r:id="rId31" location="bytearray" tooltip="bytearray" display="http://docs.python.org/2/library/functions.html - bytearray"/>
+    <hyperlink ref="B8" r:id="rId32" location="float" tooltip="float" display="http://docs.python.org/2/library/functions.html - float"/>
+    <hyperlink ref="C8" r:id="rId33" location="list" tooltip="list" display="http://docs.python.org/2/library/functions.html - list"/>
+    <hyperlink ref="D8" r:id="rId34" location="raw_input" tooltip="raw_input" display="http://docs.python.org/2/library/functions.html - raw_input"/>
+    <hyperlink ref="E8" r:id="rId35" location="unichr" tooltip="unichr" display="http://docs.python.org/2/library/functions.html - unichr"/>
+    <hyperlink ref="A9" r:id="rId36" location="callable" tooltip="callable" display="http://docs.python.org/2/library/functions.html - callable"/>
+    <hyperlink ref="B9" r:id="rId37" location="format" tooltip="format" display="http://docs.python.org/2/library/functions.html - format"/>
+    <hyperlink ref="C9" r:id="rId38" location="locals" tooltip="locals" display="http://docs.python.org/2/library/functions.html - locals"/>
+    <hyperlink ref="D9" r:id="rId39" location="reduce" tooltip="reduce" display="http://docs.python.org/2/library/functions.html - reduce"/>
+    <hyperlink ref="E9" r:id="rId40" location="unicode" tooltip="unicode" display="http://docs.python.org/2/library/functions.html - unicode"/>
+    <hyperlink ref="A10" r:id="rId41" location="chr" tooltip="chr" display="http://docs.python.org/2/library/functions.html - chr"/>
+    <hyperlink ref="B10" r:id="rId42" location="func-frozenset" display="http://docs.python.org/2/library/functions.html - func-frozenset"/>
+    <hyperlink ref="C10" r:id="rId43" location="long" tooltip="long" display="http://docs.python.org/2/library/functions.html - long"/>
+    <hyperlink ref="D10" r:id="rId44" location="reload" tooltip="reload" display="http://docs.python.org/2/library/functions.html - reload"/>
+    <hyperlink ref="E10" r:id="rId45" location="vars" tooltip="vars" display="http://docs.python.org/2/library/functions.html - vars"/>
+    <hyperlink ref="A11" r:id="rId46" location="classmethod" tooltip="classmethod" display="http://docs.python.org/2/library/functions.html - classmethod"/>
+    <hyperlink ref="B11" r:id="rId47" location="getattr" tooltip="getattr" display="http://docs.python.org/2/library/functions.html - getattr"/>
+    <hyperlink ref="C11" r:id="rId48" location="map" tooltip="map" display="http://docs.python.org/2/library/functions.html - map"/>
+    <hyperlink ref="D11" r:id="rId49" location="func-repr" display="http://docs.python.org/2/library/functions.html - func-repr"/>
+    <hyperlink ref="E11" r:id="rId50" location="xrange" tooltip="xrange" display="http://docs.python.org/2/library/functions.html - xrange"/>
+    <hyperlink ref="A12" r:id="rId51" location="cmp" tooltip="cmp" display="http://docs.python.org/2/library/functions.html - cmp"/>
+    <hyperlink ref="B12" r:id="rId52" location="globals" tooltip="globals" display="http://docs.python.org/2/library/functions.html - globals"/>
+    <hyperlink ref="C12" r:id="rId53" location="max" tooltip="max" display="http://docs.python.org/2/library/functions.html - max"/>
+    <hyperlink ref="D12" r:id="rId54" location="reversed" tooltip="reversed" display="http://docs.python.org/2/library/functions.html - reversed"/>
+    <hyperlink ref="E12" r:id="rId55" location="zip" tooltip="zip" display="http://docs.python.org/2/library/functions.html - zip"/>
+    <hyperlink ref="A13" r:id="rId56" location="compile" tooltip="compile" display="http://docs.python.org/2/library/functions.html - compile"/>
+    <hyperlink ref="B13" r:id="rId57" location="hasattr" tooltip="hasattr" display="http://docs.python.org/2/library/functions.html - hasattr"/>
+    <hyperlink ref="C13" r:id="rId58" location="func-memoryview" display="http://docs.python.org/2/library/functions.html - func-memoryview"/>
+    <hyperlink ref="D13" r:id="rId59" location="round" tooltip="round" display="http://docs.python.org/2/library/functions.html - round"/>
+    <hyperlink ref="E13" r:id="rId60" location="__import__" tooltip="__import__" display="http://docs.python.org/2/library/functions.html - __import__"/>
+    <hyperlink ref="A14" r:id="rId61" location="complex" tooltip="complex" display="http://docs.python.org/2/library/functions.html - complex"/>
+    <hyperlink ref="B14" r:id="rId62" location="hash" tooltip="hash" display="http://docs.python.org/2/library/functions.html - hash"/>
+    <hyperlink ref="C14" r:id="rId63" location="min" tooltip="min" display="http://docs.python.org/2/library/functions.html - min"/>
+    <hyperlink ref="D14" r:id="rId64" location="func-set" display="http://docs.python.org/2/library/functions.html - func-set"/>
+    <hyperlink ref="E14" r:id="rId65" location="apply" tooltip="apply" display="http://docs.python.org/2/library/functions.html - apply"/>
+    <hyperlink ref="A15" r:id="rId66" location="delattr" tooltip="delattr" display="http://docs.python.org/2/library/functions.html - delattr"/>
+    <hyperlink ref="B15" r:id="rId67" location="help" tooltip="help" display="http://docs.python.org/2/library/functions.html - help"/>
+    <hyperlink ref="C15" r:id="rId68" location="next" tooltip="next" display="http://docs.python.org/2/library/functions.html - next"/>
+    <hyperlink ref="D15" r:id="rId69" location="setattr" tooltip="setattr" display="http://docs.python.org/2/library/functions.html - setattr"/>
+    <hyperlink ref="E15" r:id="rId70" location="buffer" tooltip="buffer" display="http://docs.python.org/2/library/functions.html - buffer"/>
+    <hyperlink ref="A16" r:id="rId71" location="func-dict" display="http://docs.python.org/2/library/functions.html - func-dict"/>
+    <hyperlink ref="B16" r:id="rId72" location="hex" tooltip="hex" display="http://docs.python.org/2/library/functions.html - hex"/>
+    <hyperlink ref="C16" r:id="rId73" location="object" tooltip="object" display="http://docs.python.org/2/library/functions.html - object"/>
+    <hyperlink ref="D16" r:id="rId74" location="slice" tooltip="slice" display="http://docs.python.org/2/library/functions.html - slice"/>
+    <hyperlink ref="E16" r:id="rId75" location="coerce" tooltip="coerce" display="http://docs.python.org/2/library/functions.html - coerce"/>
+    <hyperlink ref="A17" r:id="rId76" location="dir" tooltip="dir" display="http://docs.python.org/2/library/functions.html - dir"/>
+    <hyperlink ref="B17" r:id="rId77" location="id" tooltip="id" display="http://docs.python.org/2/library/functions.html - id"/>
+    <hyperlink ref="C17" r:id="rId78" location="oct" tooltip="oct" display="http://docs.python.org/2/library/functions.html - oct"/>
+    <hyperlink ref="D17" r:id="rId79" location="sorted" tooltip="sorted" display="http://docs.python.org/2/library/functions.html - sorted"/>
+    <hyperlink ref="E17" r:id="rId80" location="intern" tooltip="intern" display="http://docs.python.org/2/library/functions.html - intern"/>
+    <hyperlink ref="G15" location="Python!D40" display="set()"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId81"/>
+  <legacyDrawing r:id="rId82"/>
+</worksheet>
 </file>